--- a/raw_data/20200818_saline/20200818_Sensor2_Test_84.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_84.xlsx
@@ -1,1127 +1,1543 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C720A12F-5AFE-416B-9AA6-02DDC0BD406D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>75074.093851</v>
+        <v>75074.093850999998</v>
       </c>
       <c r="B2" s="1">
-        <v>20.853915</v>
+        <v>20.853915000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>1247.730000</v>
+        <v>1247.73</v>
       </c>
       <c r="D2" s="1">
-        <v>-302.192000</v>
+        <v>-302.19200000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>75084.487517</v>
+        <v>75084.487517000001</v>
       </c>
       <c r="G2" s="1">
-        <v>20.856802</v>
+        <v>20.856801999999998</v>
       </c>
       <c r="H2" s="1">
-        <v>1271.780000</v>
+        <v>1271.78</v>
       </c>
       <c r="I2" s="1">
-        <v>-263.236000</v>
+        <v>-263.23599999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>75095.272554</v>
+        <v>75095.272553999996</v>
       </c>
       <c r="L2" s="1">
-        <v>20.859798</v>
+        <v>20.859798000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>1309.410000</v>
+        <v>1309.4100000000001</v>
       </c>
       <c r="N2" s="1">
-        <v>-203.185000</v>
+        <v>-203.185</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>75105.818503</v>
+        <v>75105.818503000002</v>
       </c>
       <c r="Q2" s="1">
         <v>20.862727</v>
       </c>
       <c r="R2" s="1">
-        <v>1321.890000</v>
+        <v>1321.89</v>
       </c>
       <c r="S2" s="1">
-        <v>-185.729000</v>
+        <v>-185.72900000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>75116.169829</v>
+        <v>75116.169829000006</v>
       </c>
       <c r="V2" s="1">
         <v>20.865603</v>
       </c>
       <c r="W2" s="1">
-        <v>1335.750000</v>
+        <v>1335.75</v>
       </c>
       <c r="X2" s="1">
-        <v>-172.641000</v>
+        <v>-172.64099999999999</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>75126.331511</v>
+        <v>75126.331510999997</v>
       </c>
       <c r="AA2" s="1">
-        <v>20.868425</v>
+        <v>20.868424999999998</v>
       </c>
       <c r="AB2" s="1">
-        <v>1354.140000</v>
+        <v>1354.14</v>
       </c>
       <c r="AC2" s="1">
-        <v>-170.464000</v>
+        <v>-170.464</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>75136.882937</v>
+        <v>75136.882937000002</v>
       </c>
       <c r="AF2" s="1">
-        <v>20.871356</v>
+        <v>20.871355999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>1367.660000</v>
+        <v>1367.66</v>
       </c>
       <c r="AH2" s="1">
-        <v>-180.429000</v>
+        <v>-180.429</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>75146.999309</v>
+        <v>75146.999309000006</v>
       </c>
       <c r="AK2" s="1">
-        <v>20.874166</v>
+        <v>20.874165999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>1389.200000</v>
+        <v>1389.2</v>
       </c>
       <c r="AM2" s="1">
-        <v>-210.125000</v>
+        <v>-210.125</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>75157.266493</v>
+        <v>75157.266493000003</v>
       </c>
       <c r="AP2" s="1">
         <v>20.877018</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1411.640000</v>
+        <v>1411.64</v>
       </c>
       <c r="AR2" s="1">
-        <v>-253.514000</v>
+        <v>-253.51400000000001</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>75167.800559</v>
+        <v>75167.800558999996</v>
       </c>
       <c r="AU2" s="1">
-        <v>20.879945</v>
+        <v>20.879944999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>1436.820000</v>
+        <v>1436.82</v>
       </c>
       <c r="AW2" s="1">
-        <v>-312.863000</v>
+        <v>-312.863</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>75179.370705</v>
+        <v>75179.370704999994</v>
       </c>
       <c r="AZ2" s="1">
-        <v>20.883159</v>
+        <v>20.883158999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>1456.590000</v>
+        <v>1456.59</v>
       </c>
       <c r="BB2" s="1">
-        <v>-364.349000</v>
+        <v>-364.34899999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>75190.297074</v>
+        <v>75190.297074000002</v>
       </c>
       <c r="BE2" s="1">
         <v>20.886194</v>
       </c>
       <c r="BF2" s="1">
-        <v>1543.290000</v>
+        <v>1543.29</v>
       </c>
       <c r="BG2" s="1">
-        <v>-609.816000</v>
+        <v>-609.81600000000003</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
         <v>75201.316691</v>
       </c>
       <c r="BJ2" s="1">
-        <v>20.889255</v>
+        <v>20.889254999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1699.470000</v>
+        <v>1699.47</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1049.040000</v>
+        <v>-1049.04</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>75213.142309</v>
+        <v>75213.142309000003</v>
       </c>
       <c r="BO2" s="1">
-        <v>20.892540</v>
+        <v>20.89254</v>
       </c>
       <c r="BP2" s="1">
-        <v>1995.680000</v>
+        <v>1995.68</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1807.610000</v>
+        <v>-1807.61</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>75224.312222</v>
+        <v>75224.312221999993</v>
       </c>
       <c r="BT2" s="1">
-        <v>20.895642</v>
+        <v>20.895641999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>2382.930000</v>
+        <v>2382.9299999999998</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2682.040000</v>
+        <v>-2682.04</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>75235.395350</v>
+        <v>75235.395350000006</v>
       </c>
       <c r="BY2" s="1">
-        <v>20.898721</v>
+        <v>20.898720999999998</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2865.770000</v>
+        <v>2865.77</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3629.500000</v>
+        <v>-3629.5</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>75246.257704</v>
+        <v>75246.257704000003</v>
       </c>
       <c r="CD2" s="1">
-        <v>20.901738</v>
+        <v>20.901738000000002</v>
       </c>
       <c r="CE2" s="1">
-        <v>4268.620000</v>
+        <v>4268.62</v>
       </c>
       <c r="CF2" s="1">
-        <v>-5900.140000</v>
+        <v>-5900.14</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>75074.446507</v>
+        <v>75074.446507000001</v>
       </c>
       <c r="B3" s="1">
-        <v>20.854013</v>
+        <v>20.854012999999998</v>
       </c>
       <c r="C3" s="1">
-        <v>1247.850000</v>
+        <v>1247.8499999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>-302.719000</v>
+        <v>-302.71899999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>75085.146236</v>
       </c>
       <c r="G3" s="1">
-        <v>20.856985</v>
+        <v>20.856985000000002</v>
       </c>
       <c r="H3" s="1">
-        <v>1272.000000</v>
+        <v>1272</v>
       </c>
       <c r="I3" s="1">
-        <v>-263.295000</v>
+        <v>-263.29500000000002</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>75095.688005</v>
+        <v>75095.688005000004</v>
       </c>
       <c r="L3" s="1">
-        <v>20.859913</v>
+        <v>20.859912999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>1309.460000</v>
+        <v>1309.46</v>
       </c>
       <c r="N3" s="1">
-        <v>-203.252000</v>
+        <v>-203.25200000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>75106.228689</v>
+        <v>75106.228688999996</v>
       </c>
       <c r="Q3" s="1">
         <v>20.862841</v>
       </c>
       <c r="R3" s="1">
-        <v>1321.880000</v>
+        <v>1321.88</v>
       </c>
       <c r="S3" s="1">
-        <v>-185.667000</v>
+        <v>-185.667</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>75116.515684</v>
+        <v>75116.515683999998</v>
       </c>
       <c r="V3" s="1">
-        <v>20.865699</v>
+        <v>20.865698999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>1335.860000</v>
+        <v>1335.86</v>
       </c>
       <c r="X3" s="1">
-        <v>-172.422000</v>
+        <v>-172.422</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>75126.681190</v>
+        <v>75126.681190000003</v>
       </c>
       <c r="AA3" s="1">
         <v>20.868523</v>
       </c>
       <c r="AB3" s="1">
-        <v>1354.040000</v>
+        <v>1354.04</v>
       </c>
       <c r="AC3" s="1">
-        <v>-170.739000</v>
+        <v>-170.739</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>75137.264360</v>
+        <v>75137.264360000001</v>
       </c>
       <c r="AF3" s="1">
-        <v>20.871462</v>
+        <v>20.871462000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>1367.700000</v>
+        <v>1367.7</v>
       </c>
       <c r="AH3" s="1">
-        <v>-180.408000</v>
+        <v>-180.40799999999999</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>75147.420906</v>
+        <v>75147.420905999999</v>
       </c>
       <c r="AK3" s="1">
-        <v>20.874284</v>
+        <v>20.874283999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>1389.180000</v>
+        <v>1389.18</v>
       </c>
       <c r="AM3" s="1">
-        <v>-210.116000</v>
+        <v>-210.11600000000001</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>75157.694077</v>
+        <v>75157.694076999993</v>
       </c>
       <c r="AP3" s="1">
-        <v>20.877137</v>
+        <v>20.877137000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1411.580000</v>
+        <v>1411.58</v>
       </c>
       <c r="AR3" s="1">
-        <v>-253.511000</v>
+        <v>-253.511</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>75168.225104</v>
+        <v>75168.225103999997</v>
       </c>
       <c r="AU3" s="1">
         <v>20.880063</v>
       </c>
       <c r="AV3" s="1">
-        <v>1436.810000</v>
+        <v>1436.81</v>
       </c>
       <c r="AW3" s="1">
-        <v>-312.838000</v>
+        <v>-312.83800000000002</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>75179.737745</v>
+        <v>75179.737745000006</v>
       </c>
       <c r="AZ3" s="1">
-        <v>20.883260</v>
+        <v>20.88326</v>
       </c>
       <c r="BA3" s="1">
-        <v>1456.630000</v>
+        <v>1456.63</v>
       </c>
       <c r="BB3" s="1">
-        <v>-364.364000</v>
+        <v>-364.36399999999998</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>75190.656674</v>
+        <v>75190.656673999998</v>
       </c>
       <c r="BE3" s="1">
-        <v>20.886294</v>
+        <v>20.886293999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1543.270000</v>
+        <v>1543.27</v>
       </c>
       <c r="BG3" s="1">
-        <v>-609.846000</v>
+        <v>-609.846</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>75201.693156</v>
+        <v>75201.693155999994</v>
       </c>
       <c r="BJ3" s="1">
-        <v>20.889359</v>
+        <v>20.889358999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1699.310000</v>
+        <v>1699.31</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1049.020000</v>
+        <v>-1049.02</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>75213.977075</v>
+        <v>75213.977075000003</v>
       </c>
       <c r="BO3" s="1">
         <v>20.892771</v>
       </c>
       <c r="BP3" s="1">
-        <v>1995.670000</v>
+        <v>1995.67</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1807.450000</v>
+        <v>-1807.45</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>75224.793431</v>
+        <v>75224.793430999998</v>
       </c>
       <c r="BT3" s="1">
-        <v>20.895776</v>
+        <v>20.895776000000001</v>
       </c>
       <c r="BU3" s="1">
-        <v>2382.150000</v>
+        <v>2382.15</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2681.910000</v>
+        <v>-2681.91</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>75235.858874</v>
+        <v>75235.858873999998</v>
       </c>
       <c r="BY3" s="1">
-        <v>20.898850</v>
+        <v>20.898849999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2864.690000</v>
+        <v>2864.69</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3629.360000</v>
+        <v>-3629.36</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>75246.864807</v>
+        <v>75246.864807000005</v>
       </c>
       <c r="CD3" s="1">
-        <v>20.901907</v>
+        <v>20.901907000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>4258.960000</v>
+        <v>4258.96</v>
       </c>
       <c r="CF3" s="1">
-        <v>-5919.610000</v>
+        <v>-5919.61</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>75075.116602</v>
+        <v>75075.116601999995</v>
       </c>
       <c r="B4" s="1">
-        <v>20.854199</v>
+        <v>20.854199000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>1247.970000</v>
+        <v>1247.97</v>
       </c>
       <c r="D4" s="1">
-        <v>-302.517000</v>
+        <v>-302.517</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>75085.518204</v>
+        <v>75085.518204000007</v>
       </c>
       <c r="G4" s="1">
-        <v>20.857088</v>
+        <v>20.857088000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>1273.260000</v>
+        <v>1273.26</v>
       </c>
       <c r="I4" s="1">
-        <v>-263.405000</v>
+        <v>-263.40499999999997</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>75096.033390</v>
+        <v>75096.033389999997</v>
       </c>
       <c r="L4" s="1">
-        <v>20.860009</v>
+        <v>20.860009000000002</v>
       </c>
       <c r="M4" s="1">
-        <v>1309.500000</v>
+        <v>1309.5</v>
       </c>
       <c r="N4" s="1">
-        <v>-202.916000</v>
+        <v>-202.916</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>75106.578336</v>
+        <v>75106.578336000006</v>
       </c>
       <c r="Q4" s="1">
         <v>20.862938</v>
       </c>
       <c r="R4" s="1">
-        <v>1322.020000</v>
+        <v>1322.02</v>
       </c>
       <c r="S4" s="1">
-        <v>-185.690000</v>
+        <v>-185.69</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>75116.862388</v>
+        <v>75116.862387999994</v>
       </c>
       <c r="V4" s="1">
-        <v>20.865795</v>
+        <v>20.865794999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>1335.870000</v>
+        <v>1335.87</v>
       </c>
       <c r="X4" s="1">
-        <v>-172.667000</v>
+        <v>-172.667</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>75127.043271</v>
+        <v>75127.043271000002</v>
       </c>
       <c r="AA4" s="1">
-        <v>20.868623</v>
+        <v>20.868622999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>1354.170000</v>
+        <v>1354.17</v>
       </c>
       <c r="AC4" s="1">
-        <v>-170.705000</v>
+        <v>-170.70500000000001</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>75137.700904</v>
+        <v>75137.700903999998</v>
       </c>
       <c r="AF4" s="1">
-        <v>20.871584</v>
+        <v>20.871583999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>1367.720000</v>
+        <v>1367.72</v>
       </c>
       <c r="AH4" s="1">
-        <v>-180.453000</v>
+        <v>-180.453</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>75147.762650</v>
+        <v>75147.762650000004</v>
       </c>
       <c r="AK4" s="1">
-        <v>20.874379</v>
+        <v>20.874379000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>1389.190000</v>
+        <v>1389.19</v>
       </c>
       <c r="AM4" s="1">
-        <v>-210.122000</v>
+        <v>-210.12200000000001</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>75158.022892</v>
+        <v>75158.022891999994</v>
       </c>
       <c r="AP4" s="1">
         <v>20.877229</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1411.590000</v>
+        <v>1411.59</v>
       </c>
       <c r="AR4" s="1">
-        <v>-253.511000</v>
+        <v>-253.511</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>75168.588206</v>
@@ -1130,121 +1546,121 @@
         <v>20.880163</v>
       </c>
       <c r="AV4" s="1">
-        <v>1436.840000</v>
+        <v>1436.84</v>
       </c>
       <c r="AW4" s="1">
-        <v>-312.851000</v>
+        <v>-312.851</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>75180.092384</v>
+        <v>75180.092384000003</v>
       </c>
       <c r="AZ4" s="1">
-        <v>20.883359</v>
+        <v>20.883358999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>1456.590000</v>
+        <v>1456.59</v>
       </c>
       <c r="BB4" s="1">
-        <v>-364.375000</v>
+        <v>-364.375</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>75191.020736</v>
+        <v>75191.020736000006</v>
       </c>
       <c r="BE4" s="1">
         <v>20.886395</v>
       </c>
       <c r="BF4" s="1">
-        <v>1543.270000</v>
+        <v>1543.27</v>
       </c>
       <c r="BG4" s="1">
-        <v>-609.850000</v>
+        <v>-609.85</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>75202.444098</v>
+        <v>75202.444098000007</v>
       </c>
       <c r="BJ4" s="1">
-        <v>20.889568</v>
+        <v>20.889568000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1699.370000</v>
+        <v>1699.37</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1049.040000</v>
+        <v>-1049.04</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>75214.396226</v>
+        <v>75214.396225999997</v>
       </c>
       <c r="BO4" s="1">
-        <v>20.892888</v>
+        <v>20.892887999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1995.600000</v>
+        <v>1995.6</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1807.450000</v>
+        <v>-1807.45</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>75225.221379</v>
+        <v>75225.221378999995</v>
       </c>
       <c r="BT4" s="1">
-        <v>20.895895</v>
+        <v>20.895894999999999</v>
       </c>
       <c r="BU4" s="1">
-        <v>2381.430000</v>
+        <v>2381.4299999999998</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2681.030000</v>
+        <v>-2681.03</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>75236.294069</v>
+        <v>75236.294068999996</v>
       </c>
       <c r="BY4" s="1">
         <v>20.898971</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2864.460000</v>
+        <v>2864.46</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3629.860000</v>
+        <v>-3629.86</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>75247.709991</v>
+        <v>75247.709990999996</v>
       </c>
       <c r="CD4" s="1">
-        <v>20.902142</v>
+        <v>20.902142000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>4261.770000</v>
+        <v>4261.7700000000004</v>
       </c>
       <c r="CF4" s="1">
-        <v>-5900.430000</v>
+        <v>-5900.43</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
         <v>75075.483643</v>
       </c>
@@ -1252,238 +1668,238 @@
         <v>20.854301</v>
       </c>
       <c r="C5" s="1">
-        <v>1247.980000</v>
+        <v>1247.98</v>
       </c>
       <c r="D5" s="1">
-        <v>-302.370000</v>
+        <v>-302.37</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>75085.864412</v>
+        <v>75085.864411999995</v>
       </c>
       <c r="G5" s="1">
-        <v>20.857185</v>
+        <v>20.857185000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>1272.540000</v>
+        <v>1272.54</v>
       </c>
       <c r="I5" s="1">
-        <v>-262.485000</v>
+        <v>-262.48500000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>75096.381582</v>
+        <v>75096.381582000002</v>
       </c>
       <c r="L5" s="1">
-        <v>20.860106</v>
+        <v>20.860105999999998</v>
       </c>
       <c r="M5" s="1">
-        <v>1309.160000</v>
+        <v>1309.1600000000001</v>
       </c>
       <c r="N5" s="1">
-        <v>-203.128000</v>
+        <v>-203.12799999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>75106.926528</v>
+        <v>75106.926527999996</v>
       </c>
       <c r="Q5" s="1">
         <v>20.863035</v>
       </c>
       <c r="R5" s="1">
-        <v>1322.040000</v>
+        <v>1322.04</v>
       </c>
       <c r="S5" s="1">
-        <v>-185.727000</v>
+        <v>-185.727</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>75117.295890</v>
+        <v>75117.295889999994</v>
       </c>
       <c r="V5" s="1">
-        <v>20.865916</v>
+        <v>20.865915999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>1335.710000</v>
+        <v>1335.71</v>
       </c>
       <c r="X5" s="1">
-        <v>-172.625000</v>
+        <v>-172.625</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>75127.727748</v>
+        <v>75127.727748000005</v>
       </c>
       <c r="AA5" s="1">
-        <v>20.868813</v>
+        <v>20.868812999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>1354.120000</v>
+        <v>1354.12</v>
       </c>
       <c r="AC5" s="1">
-        <v>-170.710000</v>
+        <v>-170.71</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>75137.954263</v>
+        <v>75137.954263000007</v>
       </c>
       <c r="AF5" s="1">
-        <v>20.871654</v>
+        <v>20.871653999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>1367.750000</v>
+        <v>1367.75</v>
       </c>
       <c r="AH5" s="1">
-        <v>-180.392000</v>
+        <v>-180.392</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>75148.111337</v>
+        <v>75148.111336999995</v>
       </c>
       <c r="AK5" s="1">
         <v>20.874475</v>
       </c>
       <c r="AL5" s="1">
-        <v>1389.160000</v>
+        <v>1389.16</v>
       </c>
       <c r="AM5" s="1">
-        <v>-210.061000</v>
+        <v>-210.06100000000001</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>75158.383021</v>
+        <v>75158.383021000001</v>
       </c>
       <c r="AP5" s="1">
         <v>20.877329</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1411.570000</v>
+        <v>1411.57</v>
       </c>
       <c r="AR5" s="1">
-        <v>-253.501000</v>
+        <v>-253.501</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>75168.955246</v>
+        <v>75168.955245999998</v>
       </c>
       <c r="AU5" s="1">
-        <v>20.880265</v>
+        <v>20.880265000000001</v>
       </c>
       <c r="AV5" s="1">
-        <v>1436.840000</v>
+        <v>1436.84</v>
       </c>
       <c r="AW5" s="1">
-        <v>-312.868000</v>
+        <v>-312.86799999999999</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
         <v>75180.813079</v>
       </c>
       <c r="AZ5" s="1">
-        <v>20.883559</v>
+        <v>20.883559000000002</v>
       </c>
       <c r="BA5" s="1">
-        <v>1456.610000</v>
+        <v>1456.61</v>
       </c>
       <c r="BB5" s="1">
-        <v>-364.424000</v>
+        <v>-364.42399999999998</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>75191.741921</v>
+        <v>75191.741920999993</v>
       </c>
       <c r="BE5" s="1">
         <v>20.886595</v>
       </c>
       <c r="BF5" s="1">
-        <v>1543.260000</v>
+        <v>1543.26</v>
       </c>
       <c r="BG5" s="1">
-        <v>-609.808000</v>
+        <v>-609.80799999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>75202.818081</v>
+        <v>75202.818081000005</v>
       </c>
       <c r="BJ5" s="1">
-        <v>20.889672</v>
+        <v>20.889672000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1699.380000</v>
+        <v>1699.38</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1049.000000</v>
+        <v>-1049</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>75214.794106</v>
+        <v>75214.794106000001</v>
       </c>
       <c r="BO5" s="1">
-        <v>20.892998</v>
+        <v>20.892997999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1995.560000</v>
+        <v>1995.56</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1807.480000</v>
+        <v>-1807.48</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>75225.655875</v>
+        <v>75225.655874999997</v>
       </c>
       <c r="BT5" s="1">
-        <v>20.896016</v>
+        <v>20.896015999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>2381.210000</v>
+        <v>2381.21</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2680.630000</v>
+        <v>-2680.63</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>75237.029141</v>
+        <v>75237.029141000006</v>
       </c>
       <c r="BY5" s="1">
         <v>20.899175</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2864.940000</v>
+        <v>2864.94</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3629.890000</v>
+        <v>-3629.89</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
         <v>75247.930213</v>
@@ -1492,210 +1908,210 @@
         <v>20.902203</v>
       </c>
       <c r="CE5" s="1">
-        <v>4262.490000</v>
+        <v>4262.49</v>
       </c>
       <c r="CF5" s="1">
-        <v>-5898.790000</v>
+        <v>-5898.79</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>75075.832825</v>
+        <v>75075.832825000005</v>
       </c>
       <c r="B6" s="1">
         <v>20.854398</v>
       </c>
       <c r="C6" s="1">
-        <v>1247.960000</v>
+        <v>1247.96</v>
       </c>
       <c r="D6" s="1">
-        <v>-302.400000</v>
+        <v>-302.39999999999998</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>75086.216571</v>
+        <v>75086.216570999997</v>
       </c>
       <c r="G6" s="1">
-        <v>20.857282</v>
+        <v>20.857282000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>1272.560000</v>
+        <v>1272.56</v>
       </c>
       <c r="I6" s="1">
-        <v>-262.878000</v>
+        <v>-262.87799999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>75096.817069</v>
+        <v>75096.817068999997</v>
       </c>
       <c r="L6" s="1">
-        <v>20.860227</v>
+        <v>20.860226999999998</v>
       </c>
       <c r="M6" s="1">
-        <v>1309.360000</v>
+        <v>1309.3599999999999</v>
       </c>
       <c r="N6" s="1">
-        <v>-203.160000</v>
+        <v>-203.16</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>75107.354576</v>
+        <v>75107.354575999998</v>
       </c>
       <c r="Q6" s="1">
-        <v>20.863154</v>
+        <v>20.863154000000002</v>
       </c>
       <c r="R6" s="1">
-        <v>1321.910000</v>
+        <v>1321.91</v>
       </c>
       <c r="S6" s="1">
-        <v>-185.786000</v>
+        <v>-185.786</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>75117.553130</v>
+        <v>75117.55313</v>
       </c>
       <c r="V6" s="1">
-        <v>20.865987</v>
+        <v>20.865987000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>1335.950000</v>
+        <v>1335.95</v>
       </c>
       <c r="X6" s="1">
-        <v>-172.735000</v>
+        <v>-172.73500000000001</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>75128.079412</v>
+        <v>75128.079412000006</v>
       </c>
       <c r="AA6" s="1">
-        <v>20.868911</v>
+        <v>20.868911000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>1354.060000</v>
+        <v>1354.06</v>
       </c>
       <c r="AC6" s="1">
-        <v>-170.685000</v>
+        <v>-170.685</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>75138.294518</v>
+        <v>75138.294517999995</v>
       </c>
       <c r="AF6" s="1">
         <v>20.871748</v>
       </c>
       <c r="AG6" s="1">
-        <v>1367.720000</v>
+        <v>1367.72</v>
       </c>
       <c r="AH6" s="1">
-        <v>-180.461000</v>
+        <v>-180.46100000000001</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>75148.458042</v>
+        <v>75148.458041999998</v>
       </c>
       <c r="AK6" s="1">
-        <v>20.874572</v>
+        <v>20.874572000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>1389.190000</v>
+        <v>1389.19</v>
       </c>
       <c r="AM6" s="1">
-        <v>-210.105000</v>
+        <v>-210.10499999999999</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>75158.743580</v>
+        <v>75158.743579999995</v>
       </c>
       <c r="AP6" s="1">
-        <v>20.877429</v>
+        <v>20.877428999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1411.620000</v>
+        <v>1411.62</v>
       </c>
       <c r="AR6" s="1">
-        <v>-253.534000</v>
+        <v>-253.53399999999999</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>75169.680861</v>
+        <v>75169.680861000001</v>
       </c>
       <c r="AU6" s="1">
-        <v>20.880467</v>
+        <v>20.880466999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>1436.830000</v>
+        <v>1436.83</v>
       </c>
       <c r="AW6" s="1">
-        <v>-312.847000</v>
+        <v>-312.84699999999998</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>75181.189038</v>
+        <v>75181.189037999997</v>
       </c>
       <c r="AZ6" s="1">
         <v>20.883664</v>
       </c>
       <c r="BA6" s="1">
-        <v>1456.630000</v>
+        <v>1456.63</v>
       </c>
       <c r="BB6" s="1">
-        <v>-364.410000</v>
+        <v>-364.41</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>75192.101023</v>
+        <v>75192.101022999996</v>
       </c>
       <c r="BE6" s="1">
         <v>20.886695</v>
       </c>
       <c r="BF6" s="1">
-        <v>1543.240000</v>
+        <v>1543.24</v>
       </c>
       <c r="BG6" s="1">
-        <v>-609.842000</v>
+        <v>-609.84199999999998</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>75203.194545</v>
+        <v>75203.194545000006</v>
       </c>
       <c r="BJ6" s="1">
-        <v>20.889776</v>
+        <v>20.889776000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1699.290000</v>
+        <v>1699.29</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1049.070000</v>
+        <v>-1049.07</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>75215.532066</v>
@@ -1704,527 +2120,527 @@
         <v>20.893203</v>
       </c>
       <c r="BP6" s="1">
-        <v>1995.590000</v>
+        <v>1995.59</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1807.570000</v>
+        <v>-1807.57</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>75226.388503</v>
+        <v>75226.388502999995</v>
       </c>
       <c r="BT6" s="1">
-        <v>20.896219</v>
+        <v>20.896218999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>2381.410000</v>
+        <v>2381.41</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2679.910000</v>
+        <v>-2679.91</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>75237.164548</v>
+        <v>75237.164548000001</v>
       </c>
       <c r="BY6" s="1">
-        <v>20.899212</v>
+        <v>20.899211999999999</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2864.710000</v>
+        <v>2864.71</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3630.200000</v>
+        <v>-3630.2</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>75248.451013</v>
+        <v>75248.451012999998</v>
       </c>
       <c r="CD6" s="1">
         <v>20.902348</v>
       </c>
       <c r="CE6" s="1">
-        <v>4254.700000</v>
+        <v>4254.7</v>
       </c>
       <c r="CF6" s="1">
-        <v>-5913.530000</v>
+        <v>-5913.53</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>75076.178538</v>
+        <v>75076.178537999993</v>
       </c>
       <c r="B7" s="1">
-        <v>20.854494</v>
+        <v>20.854493999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>1248.040000</v>
+        <v>1248.04</v>
       </c>
       <c r="D7" s="1">
-        <v>-302.271000</v>
+        <v>-302.27100000000002</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>75086.649083</v>
+        <v>75086.649082999997</v>
       </c>
       <c r="G7" s="1">
-        <v>20.857403</v>
+        <v>20.857403000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>1272.430000</v>
+        <v>1272.43</v>
       </c>
       <c r="I7" s="1">
-        <v>-263.154000</v>
+        <v>-263.154</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>75097.096318</v>
+        <v>75097.096317999996</v>
       </c>
       <c r="L7" s="1">
         <v>20.860305</v>
       </c>
       <c r="M7" s="1">
-        <v>1309.230000</v>
+        <v>1309.23</v>
       </c>
       <c r="N7" s="1">
-        <v>-203.089000</v>
+        <v>-203.089</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>75107.632335</v>
+        <v>75107.632335000002</v>
       </c>
       <c r="Q7" s="1">
-        <v>20.863231</v>
+        <v>20.863230999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>1321.970000</v>
+        <v>1321.97</v>
       </c>
       <c r="S7" s="1">
-        <v>-185.835000</v>
+        <v>-185.83500000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>75117.903489</v>
+        <v>75117.903489000004</v>
       </c>
       <c r="V7" s="1">
-        <v>20.866084</v>
+        <v>20.866084000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>1335.680000</v>
+        <v>1335.68</v>
       </c>
       <c r="X7" s="1">
-        <v>-172.609000</v>
+        <v>-172.60900000000001</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>75128.427604</v>
+        <v>75128.427603999997</v>
       </c>
       <c r="AA7" s="1">
-        <v>20.869008</v>
+        <v>20.869008000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>1354.120000</v>
+        <v>1354.12</v>
       </c>
       <c r="AC7" s="1">
-        <v>-170.686000</v>
+        <v>-170.68600000000001</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>75138.641222</v>
+        <v>75138.641222000006</v>
       </c>
       <c r="AF7" s="1">
         <v>20.871845</v>
       </c>
       <c r="AG7" s="1">
-        <v>1367.730000</v>
+        <v>1367.73</v>
       </c>
       <c r="AH7" s="1">
-        <v>-180.417000</v>
+        <v>-180.417</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>75149.155912</v>
+        <v>75149.155912000002</v>
       </c>
       <c r="AK7" s="1">
-        <v>20.874766</v>
+        <v>20.874766000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>1389.210000</v>
+        <v>1389.21</v>
       </c>
       <c r="AM7" s="1">
-        <v>-210.082000</v>
+        <v>-210.08199999999999</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>75159.467242</v>
+        <v>75159.467241999999</v>
       </c>
       <c r="AP7" s="1">
-        <v>20.877630</v>
+        <v>20.87763</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1411.630000</v>
+        <v>1411.63</v>
       </c>
       <c r="AR7" s="1">
-        <v>-253.507000</v>
+        <v>-253.50700000000001</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>75170.071710</v>
+        <v>75170.071710000004</v>
       </c>
       <c r="AU7" s="1">
         <v>20.880575</v>
       </c>
       <c r="AV7" s="1">
-        <v>1436.840000</v>
+        <v>1436.84</v>
       </c>
       <c r="AW7" s="1">
-        <v>-312.815000</v>
+        <v>-312.815</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>75181.569470</v>
+        <v>75181.569470000002</v>
       </c>
       <c r="AZ7" s="1">
-        <v>20.883769</v>
+        <v>20.883769000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>1456.620000</v>
+        <v>1456.62</v>
       </c>
       <c r="BB7" s="1">
-        <v>-364.394000</v>
+        <v>-364.39400000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>75192.464095</v>
+        <v>75192.464095000003</v>
       </c>
       <c r="BE7" s="1">
         <v>20.886796</v>
       </c>
       <c r="BF7" s="1">
-        <v>1543.260000</v>
+        <v>1543.26</v>
       </c>
       <c r="BG7" s="1">
-        <v>-609.808000</v>
+        <v>-609.80799999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>75203.886960</v>
+        <v>75203.886960000003</v>
       </c>
       <c r="BJ7" s="1">
-        <v>20.889969</v>
+        <v>20.889969000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1699.300000</v>
+        <v>1699.3</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1048.970000</v>
+        <v>-1048.97</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>75216.031009</v>
+        <v>75216.031008999998</v>
       </c>
       <c r="BO7" s="1">
-        <v>20.893342</v>
+        <v>20.893342000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1995.600000</v>
+        <v>1995.6</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1807.570000</v>
+        <v>-1807.57</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>75226.529330</v>
+        <v>75226.529330000005</v>
       </c>
       <c r="BT7" s="1">
         <v>20.896258</v>
       </c>
       <c r="BU7" s="1">
-        <v>2381.360000</v>
+        <v>2381.36</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2679.150000</v>
+        <v>-2679.15</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>75237.590115</v>
+        <v>75237.590114999999</v>
       </c>
       <c r="BY7" s="1">
         <v>20.899331</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2864.950000</v>
+        <v>2864.95</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3629.680000</v>
+        <v>-3629.68</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>75248.971354</v>
+        <v>75248.971353999994</v>
       </c>
       <c r="CD7" s="1">
-        <v>20.902492</v>
+        <v>20.902491999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>4258.190000</v>
+        <v>4258.1899999999996</v>
       </c>
       <c r="CF7" s="1">
-        <v>-5905.770000</v>
+        <v>-5905.77</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>75076.613033</v>
+        <v>75076.613033000001</v>
       </c>
       <c r="B8" s="1">
-        <v>20.854615</v>
+        <v>20.854614999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>1247.660000</v>
+        <v>1247.6600000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>-302.338000</v>
+        <v>-302.33800000000002</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>75086.917914</v>
+        <v>75086.917914000005</v>
       </c>
       <c r="G8" s="1">
-        <v>20.857477</v>
+        <v>20.857476999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>1273.150000</v>
+        <v>1273.1500000000001</v>
       </c>
       <c r="I8" s="1">
-        <v>-261.880000</v>
+        <v>-261.88</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>75097.443516</v>
+        <v>75097.443515999999</v>
       </c>
       <c r="L8" s="1">
         <v>20.860401</v>
       </c>
       <c r="M8" s="1">
-        <v>1309.480000</v>
+        <v>1309.48</v>
       </c>
       <c r="N8" s="1">
-        <v>-203.036000</v>
+        <v>-203.036</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>75107.984000</v>
+        <v>75107.983999999997</v>
       </c>
       <c r="Q8" s="1">
         <v>20.863329</v>
       </c>
       <c r="R8" s="1">
-        <v>1321.850000</v>
+        <v>1321.85</v>
       </c>
       <c r="S8" s="1">
-        <v>-185.784000</v>
+        <v>-185.78399999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>75118.242753</v>
+        <v>75118.242752999999</v>
       </c>
       <c r="V8" s="1">
-        <v>20.866179</v>
+        <v>20.866178999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>1335.700000</v>
+        <v>1335.7</v>
       </c>
       <c r="X8" s="1">
-        <v>-172.527000</v>
+        <v>-172.52699999999999</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>75129.126498</v>
+        <v>75129.126497999998</v>
       </c>
       <c r="AA8" s="1">
-        <v>20.869202</v>
+        <v>20.869202000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>1354.270000</v>
+        <v>1354.27</v>
       </c>
       <c r="AC8" s="1">
-        <v>-170.610000</v>
+        <v>-170.61</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>75139.330165</v>
+        <v>75139.330165000007</v>
       </c>
       <c r="AF8" s="1">
-        <v>20.872036</v>
+        <v>20.872036000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>1367.710000</v>
+        <v>1367.71</v>
       </c>
       <c r="AH8" s="1">
-        <v>-180.406000</v>
+        <v>-180.40600000000001</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>75149.502626</v>
+        <v>75149.502626000001</v>
       </c>
       <c r="AK8" s="1">
         <v>20.874862</v>
       </c>
       <c r="AL8" s="1">
-        <v>1389.210000</v>
+        <v>1389.21</v>
       </c>
       <c r="AM8" s="1">
-        <v>-210.092000</v>
+        <v>-210.09200000000001</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>75159.815671</v>
+        <v>75159.815671000004</v>
       </c>
       <c r="AP8" s="1">
         <v>20.877727</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1411.580000</v>
+        <v>1411.58</v>
       </c>
       <c r="AR8" s="1">
-        <v>-253.525000</v>
+        <v>-253.52500000000001</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>75170.437293</v>
+        <v>75170.437292999995</v>
       </c>
       <c r="AU8" s="1">
-        <v>20.880677</v>
+        <v>20.880676999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>1436.820000</v>
+        <v>1436.82</v>
       </c>
       <c r="AW8" s="1">
-        <v>-312.861000</v>
+        <v>-312.86099999999999</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>75182.236128</v>
+        <v>75182.236128000004</v>
       </c>
       <c r="AZ8" s="1">
-        <v>20.883954</v>
+        <v>20.883953999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1456.580000</v>
+        <v>1456.58</v>
       </c>
       <c r="BB8" s="1">
-        <v>-364.406000</v>
+        <v>-364.40600000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>75193.148574</v>
+        <v>75193.148574000006</v>
       </c>
       <c r="BE8" s="1">
         <v>20.886986</v>
       </c>
       <c r="BF8" s="1">
-        <v>1543.260000</v>
+        <v>1543.26</v>
       </c>
       <c r="BG8" s="1">
-        <v>-609.814000</v>
+        <v>-609.81399999999996</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>75204.320463</v>
+        <v>75204.320462999996</v>
       </c>
       <c r="BJ8" s="1">
         <v>20.890089</v>
       </c>
       <c r="BK8" s="1">
-        <v>1699.260000</v>
+        <v>1699.26</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1048.990000</v>
+        <v>-1048.99</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>75216.451615</v>
+        <v>75216.451614999998</v>
       </c>
       <c r="BO8" s="1">
         <v>20.893459</v>
       </c>
       <c r="BP8" s="1">
-        <v>1995.510000</v>
+        <v>1995.51</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1807.530000</v>
+        <v>-1807.53</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>75226.939025</v>
@@ -2233,28 +2649,28 @@
         <v>20.896372</v>
       </c>
       <c r="BU8" s="1">
-        <v>2381.630000</v>
+        <v>2381.63</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2678.580000</v>
+        <v>-2678.58</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>75238.007747</v>
+        <v>75238.007746999996</v>
       </c>
       <c r="BY8" s="1">
-        <v>20.899447</v>
+        <v>20.899446999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2865.440000</v>
+        <v>2865.44</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3629.760000</v>
+        <v>-3629.76</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
         <v>75249.522868</v>
@@ -2263,936 +2679,936 @@
         <v>20.902645</v>
       </c>
       <c r="CE8" s="1">
-        <v>4267.380000</v>
+        <v>4267.38</v>
       </c>
       <c r="CF8" s="1">
-        <v>-5898.120000</v>
+        <v>-5898.12</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>75076.877895</v>
+        <v>75076.877894999998</v>
       </c>
       <c r="B9" s="1">
-        <v>20.854688</v>
+        <v>20.854687999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>1247.770000</v>
+        <v>1247.77</v>
       </c>
       <c r="D9" s="1">
-        <v>-302.591000</v>
+        <v>-302.59100000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>75087.262633</v>
+        <v>75087.262633000006</v>
       </c>
       <c r="G9" s="1">
-        <v>20.857573</v>
+        <v>20.857572999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>1272.610000</v>
+        <v>1272.6099999999999</v>
       </c>
       <c r="I9" s="1">
-        <v>-262.028000</v>
+        <v>-262.02800000000002</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>75097.789228</v>
+        <v>75097.789227999994</v>
       </c>
       <c r="L9" s="1">
-        <v>20.860497</v>
+        <v>20.860496999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>1309.500000</v>
+        <v>1309.5</v>
       </c>
       <c r="N9" s="1">
-        <v>-203.144000</v>
+        <v>-203.14400000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>75108.333183</v>
+        <v>75108.333182999995</v>
       </c>
       <c r="Q9" s="1">
         <v>20.863426</v>
       </c>
       <c r="R9" s="1">
-        <v>1321.930000</v>
+        <v>1321.93</v>
       </c>
       <c r="S9" s="1">
-        <v>-185.684000</v>
+        <v>-185.684</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>75118.930208</v>
+        <v>75118.930208000005</v>
       </c>
       <c r="V9" s="1">
-        <v>20.866370</v>
+        <v>20.86637</v>
       </c>
       <c r="W9" s="1">
-        <v>1335.780000</v>
+        <v>1335.78</v>
       </c>
       <c r="X9" s="1">
-        <v>-172.648000</v>
+        <v>-172.648</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>75129.473172</v>
+        <v>75129.473171999998</v>
       </c>
       <c r="AA9" s="1">
-        <v>20.869298</v>
+        <v>20.869298000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>1354.140000</v>
+        <v>1354.14</v>
       </c>
       <c r="AC9" s="1">
-        <v>-170.614000</v>
+        <v>-170.614</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>75139.682356</v>
+        <v>75139.682356000005</v>
       </c>
       <c r="AF9" s="1">
-        <v>20.872134</v>
+        <v>20.872133999999999</v>
       </c>
       <c r="AG9" s="1">
-        <v>1367.730000</v>
+        <v>1367.73</v>
       </c>
       <c r="AH9" s="1">
-        <v>-180.409000</v>
+        <v>-180.40899999999999</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>75149.851303</v>
+        <v>75149.851303000003</v>
       </c>
       <c r="AK9" s="1">
         <v>20.874959</v>
       </c>
       <c r="AL9" s="1">
-        <v>1389.200000</v>
+        <v>1389.2</v>
       </c>
       <c r="AM9" s="1">
-        <v>-210.118000</v>
+        <v>-210.11799999999999</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>75160.187931</v>
+        <v>75160.187930999993</v>
       </c>
       <c r="AP9" s="1">
-        <v>20.877830</v>
+        <v>20.877829999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1411.600000</v>
+        <v>1411.6</v>
       </c>
       <c r="AR9" s="1">
-        <v>-253.527000</v>
+        <v>-253.52699999999999</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>75171.117771</v>
+        <v>75171.117771000005</v>
       </c>
       <c r="AU9" s="1">
-        <v>20.880866</v>
+        <v>20.880866000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>1436.810000</v>
+        <v>1436.81</v>
       </c>
       <c r="AW9" s="1">
-        <v>-312.845000</v>
+        <v>-312.84500000000003</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>75182.649755</v>
+        <v>75182.649755000006</v>
       </c>
       <c r="AZ9" s="1">
         <v>20.884069</v>
       </c>
       <c r="BA9" s="1">
-        <v>1456.630000</v>
+        <v>1456.63</v>
       </c>
       <c r="BB9" s="1">
-        <v>-364.367000</v>
+        <v>-364.36700000000002</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>75193.569218</v>
+        <v>75193.569218000004</v>
       </c>
       <c r="BE9" s="1">
         <v>20.887103</v>
       </c>
       <c r="BF9" s="1">
-        <v>1543.250000</v>
+        <v>1543.25</v>
       </c>
       <c r="BG9" s="1">
-        <v>-609.850000</v>
+        <v>-609.85</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>75204.693951</v>
+        <v>75204.693950999994</v>
       </c>
       <c r="BJ9" s="1">
         <v>20.890193</v>
       </c>
       <c r="BK9" s="1">
-        <v>1699.270000</v>
+        <v>1699.27</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1049.030000</v>
+        <v>-1049.03</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>75216.846430</v>
+        <v>75216.846430000005</v>
       </c>
       <c r="BO9" s="1">
-        <v>20.893568</v>
+        <v>20.893567999999998</v>
       </c>
       <c r="BP9" s="1">
-        <v>1995.520000</v>
+        <v>1995.52</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1807.520000</v>
+        <v>-1807.52</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>75227.551586</v>
+        <v>75227.551586000001</v>
       </c>
       <c r="BT9" s="1">
         <v>20.896542</v>
       </c>
       <c r="BU9" s="1">
-        <v>2382.430000</v>
+        <v>2382.4299999999998</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2678.260000</v>
+        <v>-2678.26</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>75238.452658</v>
+        <v>75238.452657999995</v>
       </c>
       <c r="BY9" s="1">
-        <v>20.899570</v>
+        <v>20.899570000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2864.560000</v>
+        <v>2864.56</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3630.250000</v>
+        <v>-3630.25</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
         <v>75250.051603</v>
       </c>
       <c r="CD9" s="1">
-        <v>20.902792</v>
+        <v>20.902792000000002</v>
       </c>
       <c r="CE9" s="1">
-        <v>4254.630000</v>
+        <v>4254.63</v>
       </c>
       <c r="CF9" s="1">
-        <v>-5907.700000</v>
+        <v>-5907.7</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>75077.217161</v>
+        <v>75077.217160999993</v>
       </c>
       <c r="B10" s="1">
-        <v>20.854783</v>
+        <v>20.854783000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>1247.450000</v>
+        <v>1247.45</v>
       </c>
       <c r="D10" s="1">
-        <v>-302.213000</v>
+        <v>-302.21300000000002</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>75087.609338</v>
+        <v>75087.609337999995</v>
       </c>
       <c r="G10" s="1">
-        <v>20.857669</v>
+        <v>20.857669000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>1272.110000</v>
+        <v>1272.1099999999999</v>
       </c>
       <c r="I10" s="1">
-        <v>-262.369000</v>
+        <v>-262.36900000000003</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>75098.483131</v>
+        <v>75098.483131000001</v>
       </c>
       <c r="L10" s="1">
-        <v>20.860690</v>
+        <v>20.860690000000002</v>
       </c>
       <c r="M10" s="1">
-        <v>1309.220000</v>
+        <v>1309.22</v>
       </c>
       <c r="N10" s="1">
-        <v>-203.009000</v>
+        <v>-203.00899999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>75109.029104</v>
+        <v>75109.029104000001</v>
       </c>
       <c r="Q10" s="1">
         <v>20.863619</v>
       </c>
       <c r="R10" s="1">
-        <v>1321.990000</v>
+        <v>1321.99</v>
       </c>
       <c r="S10" s="1">
-        <v>-185.698000</v>
+        <v>-185.69800000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>75119.274431</v>
+        <v>75119.274430999998</v>
       </c>
       <c r="V10" s="1">
-        <v>20.866465</v>
+        <v>20.866465000000002</v>
       </c>
       <c r="W10" s="1">
-        <v>1335.930000</v>
+        <v>1335.93</v>
       </c>
       <c r="X10" s="1">
-        <v>-172.586000</v>
+        <v>-172.58600000000001</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>75129.824338</v>
+        <v>75129.824338000006</v>
       </c>
       <c r="AA10" s="1">
-        <v>20.869396</v>
+        <v>20.869395999999998</v>
       </c>
       <c r="AB10" s="1">
-        <v>1354.150000</v>
+        <v>1354.15</v>
       </c>
       <c r="AC10" s="1">
-        <v>-170.764000</v>
+        <v>-170.76400000000001</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>75140.023604</v>
+        <v>75140.023604000002</v>
       </c>
       <c r="AF10" s="1">
-        <v>20.872229</v>
+        <v>20.872229000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>1367.670000</v>
+        <v>1367.67</v>
       </c>
       <c r="AH10" s="1">
-        <v>-180.461000</v>
+        <v>-180.46100000000001</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>75150.521398</v>
+        <v>75150.521397999997</v>
       </c>
       <c r="AK10" s="1">
         <v>20.875145</v>
       </c>
       <c r="AL10" s="1">
-        <v>1389.150000</v>
+        <v>1389.15</v>
       </c>
       <c r="AM10" s="1">
-        <v>-210.100000</v>
+        <v>-210.1</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>75160.696329</v>
+        <v>75160.696328999999</v>
       </c>
       <c r="AP10" s="1">
-        <v>20.877971</v>
+        <v>20.877970999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1411.610000</v>
+        <v>1411.61</v>
       </c>
       <c r="AR10" s="1">
-        <v>-253.533000</v>
+        <v>-253.53299999999999</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>75171.567642</v>
+        <v>75171.567641999995</v>
       </c>
       <c r="AU10" s="1">
-        <v>20.880991</v>
+        <v>20.880991000000002</v>
       </c>
       <c r="AV10" s="1">
-        <v>1436.840000</v>
+        <v>1436.84</v>
       </c>
       <c r="AW10" s="1">
-        <v>-312.852000</v>
+        <v>-312.85199999999998</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>75183.028204</v>
+        <v>75183.028204000002</v>
       </c>
       <c r="AZ10" s="1">
-        <v>20.884175</v>
+        <v>20.884174999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>1456.590000</v>
+        <v>1456.59</v>
       </c>
       <c r="BB10" s="1">
-        <v>-364.381000</v>
+        <v>-364.38099999999997</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>75193.946144</v>
+        <v>75193.946144000001</v>
       </c>
       <c r="BE10" s="1">
         <v>20.887207</v>
       </c>
       <c r="BF10" s="1">
-        <v>1543.260000</v>
+        <v>1543.26</v>
       </c>
       <c r="BG10" s="1">
-        <v>-609.828000</v>
+        <v>-609.82799999999997</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>75205.069956</v>
+        <v>75205.069956000007</v>
       </c>
       <c r="BJ10" s="1">
         <v>20.890297</v>
       </c>
       <c r="BK10" s="1">
-        <v>1699.290000</v>
+        <v>1699.29</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1049.030000</v>
+        <v>-1049.03</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>75217.270510</v>
+        <v>75217.270510000002</v>
       </c>
       <c r="BO10" s="1">
-        <v>20.893686</v>
+        <v>20.893685999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1995.310000</v>
+        <v>1995.31</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1807.330000</v>
+        <v>-1807.33</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>75227.785200</v>
+        <v>75227.785199999998</v>
       </c>
       <c r="BT10" s="1">
-        <v>20.896607</v>
+        <v>20.896606999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>2382.860000</v>
+        <v>2382.86</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2677.720000</v>
+        <v>-2677.72</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>75238.875330</v>
+        <v>75238.875329999995</v>
       </c>
       <c r="BY10" s="1">
-        <v>20.899688</v>
+        <v>20.899688000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2864.950000</v>
+        <v>2864.95</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3630.180000</v>
+        <v>-3630.18</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>75250.571410</v>
+        <v>75250.571410000004</v>
       </c>
       <c r="CD10" s="1">
-        <v>20.902937</v>
+        <v>20.902937000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>4273.090000</v>
+        <v>4273.09</v>
       </c>
       <c r="CF10" s="1">
-        <v>-5917.890000</v>
+        <v>-5917.89</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>75077.892216</v>
+        <v>75077.892215999993</v>
       </c>
       <c r="B11" s="1">
-        <v>20.854970</v>
+        <v>20.854970000000002</v>
       </c>
       <c r="C11" s="1">
-        <v>1248.010000</v>
+        <v>1248.01</v>
       </c>
       <c r="D11" s="1">
-        <v>-302.266000</v>
+        <v>-302.26600000000002</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>75088.298280</v>
+        <v>75088.298280000003</v>
       </c>
       <c r="G11" s="1">
         <v>20.857861</v>
       </c>
       <c r="H11" s="1">
-        <v>1272.710000</v>
+        <v>1272.71</v>
       </c>
       <c r="I11" s="1">
-        <v>-262.102000</v>
+        <v>-262.10199999999998</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>75098.832347</v>
+        <v>75098.832347000003</v>
       </c>
       <c r="L11" s="1">
-        <v>20.860787</v>
+        <v>20.860786999999998</v>
       </c>
       <c r="M11" s="1">
-        <v>1309.400000</v>
+        <v>1309.4000000000001</v>
       </c>
       <c r="N11" s="1">
-        <v>-202.981000</v>
+        <v>-202.98099999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>75109.378778</v>
+        <v>75109.378777999998</v>
       </c>
       <c r="Q11" s="1">
         <v>20.863716</v>
       </c>
       <c r="R11" s="1">
-        <v>1321.970000</v>
+        <v>1321.97</v>
       </c>
       <c r="S11" s="1">
-        <v>-185.743000</v>
+        <v>-185.74299999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>75119.617168</v>
+        <v>75119.617167999997</v>
       </c>
       <c r="V11" s="1">
-        <v>20.866560</v>
+        <v>20.86656</v>
       </c>
       <c r="W11" s="1">
-        <v>1335.770000</v>
+        <v>1335.77</v>
       </c>
       <c r="X11" s="1">
-        <v>-172.731000</v>
+        <v>-172.73099999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>75130.486001</v>
+        <v>75130.486000999997</v>
       </c>
       <c r="AA11" s="1">
-        <v>20.869579</v>
+        <v>20.869579000000002</v>
       </c>
       <c r="AB11" s="1">
-        <v>1354.140000</v>
+        <v>1354.14</v>
       </c>
       <c r="AC11" s="1">
-        <v>-170.557000</v>
+        <v>-170.55699999999999</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>75140.676307</v>
+        <v>75140.676307000002</v>
       </c>
       <c r="AF11" s="1">
-        <v>20.872410</v>
+        <v>20.872409999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>1367.710000</v>
+        <v>1367.71</v>
       </c>
       <c r="AH11" s="1">
-        <v>-180.396000</v>
+        <v>-180.39599999999999</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>75150.897367</v>
+        <v>75150.897366999998</v>
       </c>
       <c r="AK11" s="1">
         <v>20.875249</v>
       </c>
       <c r="AL11" s="1">
-        <v>1389.170000</v>
+        <v>1389.17</v>
       </c>
       <c r="AM11" s="1">
-        <v>-210.110000</v>
+        <v>-210.11</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>75160.935432</v>
+        <v>75160.935431999998</v>
       </c>
       <c r="AP11" s="1">
         <v>20.878038</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1411.630000</v>
+        <v>1411.63</v>
       </c>
       <c r="AR11" s="1">
-        <v>-253.501000</v>
+        <v>-253.501</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>75171.929754</v>
+        <v>75171.929753999997</v>
       </c>
       <c r="AU11" s="1">
-        <v>20.881092</v>
+        <v>20.881091999999999</v>
       </c>
       <c r="AV11" s="1">
-        <v>1436.820000</v>
+        <v>1436.82</v>
       </c>
       <c r="AW11" s="1">
-        <v>-312.858000</v>
+        <v>-312.858</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>75183.409131</v>
+        <v>75183.409130999993</v>
       </c>
       <c r="AZ11" s="1">
-        <v>20.884280</v>
+        <v>20.88428</v>
       </c>
       <c r="BA11" s="1">
-        <v>1456.610000</v>
+        <v>1456.61</v>
       </c>
       <c r="BB11" s="1">
-        <v>-364.419000</v>
+        <v>-364.41899999999998</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>75194.381629</v>
+        <v>75194.381628999996</v>
       </c>
       <c r="BE11" s="1">
         <v>20.887328</v>
       </c>
       <c r="BF11" s="1">
-        <v>1543.180000</v>
+        <v>1543.18</v>
       </c>
       <c r="BG11" s="1">
-        <v>-609.799000</v>
+        <v>-609.79899999999998</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>75205.496974</v>
+        <v>75205.496973999994</v>
       </c>
       <c r="BJ11" s="1">
-        <v>20.890416</v>
+        <v>20.890415999999998</v>
       </c>
       <c r="BK11" s="1">
-        <v>1699.290000</v>
+        <v>1699.29</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1049.030000</v>
+        <v>-1049.03</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>75217.664334</v>
+        <v>75217.664334000001</v>
       </c>
       <c r="BO11" s="1">
-        <v>20.893796</v>
+        <v>20.893795999999998</v>
       </c>
       <c r="BP11" s="1">
-        <v>1995.500000</v>
+        <v>1995.5</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1807.540000</v>
+        <v>-1807.54</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>75228.202335</v>
+        <v>75228.202334999994</v>
       </c>
       <c r="BT11" s="1">
-        <v>20.896723</v>
+        <v>20.896723000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>2383.550000</v>
+        <v>2383.5500000000002</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2677.840000</v>
+        <v>-2677.84</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>75239.299330</v>
+        <v>75239.299329999994</v>
       </c>
       <c r="BY11" s="1">
-        <v>20.899805</v>
+        <v>20.899805000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2865.170000</v>
+        <v>2865.17</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3630.140000</v>
+        <v>-3630.14</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>75251.109602</v>
+        <v>75251.109601999997</v>
       </c>
       <c r="CD11" s="1">
-        <v>20.903086</v>
+        <v>20.903085999999998</v>
       </c>
       <c r="CE11" s="1">
-        <v>4263.720000</v>
+        <v>4263.72</v>
       </c>
       <c r="CF11" s="1">
-        <v>-5900.430000</v>
+        <v>-5900.43</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>75078.242427</v>
+        <v>75078.242427000005</v>
       </c>
       <c r="B12" s="1">
-        <v>20.855067</v>
+        <v>20.855066999999998</v>
       </c>
       <c r="C12" s="1">
-        <v>1247.820000</v>
+        <v>1247.82</v>
       </c>
       <c r="D12" s="1">
-        <v>-302.465000</v>
+        <v>-302.46499999999997</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>75088.641016</v>
+        <v>75088.641015999994</v>
       </c>
       <c r="G12" s="1">
-        <v>20.857956</v>
+        <v>20.857956000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>1272.820000</v>
+        <v>1272.82</v>
       </c>
       <c r="I12" s="1">
-        <v>-262.451000</v>
+        <v>-262.45100000000002</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>75099.180010</v>
+        <v>75099.180009999996</v>
       </c>
       <c r="L12" s="1">
-        <v>20.860883</v>
+        <v>20.860883000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>1309.580000</v>
+        <v>1309.58</v>
       </c>
       <c r="N12" s="1">
-        <v>-203.114000</v>
+        <v>-203.114</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>75109.725454</v>
+        <v>75109.725453999999</v>
       </c>
       <c r="Q12" s="1">
         <v>20.863813</v>
       </c>
       <c r="R12" s="1">
-        <v>1321.930000</v>
+        <v>1321.93</v>
       </c>
       <c r="S12" s="1">
-        <v>-185.808000</v>
+        <v>-185.80799999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>75120.270894</v>
+        <v>75120.270894000001</v>
       </c>
       <c r="V12" s="1">
-        <v>20.866742</v>
+        <v>20.866741999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>1335.860000</v>
+        <v>1335.86</v>
       </c>
       <c r="X12" s="1">
-        <v>-172.601000</v>
+        <v>-172.601</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>75130.857504</v>
       </c>
       <c r="AA12" s="1">
-        <v>20.869683</v>
+        <v>20.869682999999998</v>
       </c>
       <c r="AB12" s="1">
-        <v>1354.250000</v>
+        <v>1354.25</v>
       </c>
       <c r="AC12" s="1">
-        <v>-170.633000</v>
+        <v>-170.63300000000001</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>75141.054755</v>
+        <v>75141.054755000005</v>
       </c>
       <c r="AF12" s="1">
         <v>20.872515</v>
       </c>
       <c r="AG12" s="1">
-        <v>1367.710000</v>
+        <v>1367.71</v>
       </c>
       <c r="AH12" s="1">
-        <v>-180.392000</v>
+        <v>-180.392</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>75151.248565</v>
+        <v>75151.248565000002</v>
       </c>
       <c r="AK12" s="1">
-        <v>20.875347</v>
+        <v>20.875347000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>1389.140000</v>
+        <v>1389.14</v>
       </c>
       <c r="AM12" s="1">
-        <v>-210.098000</v>
+        <v>-210.09800000000001</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>75161.264286</v>
+        <v>75161.264286000005</v>
       </c>
       <c r="AP12" s="1">
-        <v>20.878129</v>
+        <v>20.878129000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1411.600000</v>
+        <v>1411.6</v>
       </c>
       <c r="AR12" s="1">
-        <v>-253.518000</v>
+        <v>-253.518</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>75172.293290</v>
+        <v>75172.293290000001</v>
       </c>
       <c r="AU12" s="1">
         <v>20.881193</v>
       </c>
       <c r="AV12" s="1">
-        <v>1436.840000</v>
+        <v>1436.84</v>
       </c>
       <c r="AW12" s="1">
-        <v>-312.859000</v>
+        <v>-312.85899999999998</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>75183.842139</v>
@@ -3201,1026 +3617,1026 @@
         <v>20.884401</v>
       </c>
       <c r="BA12" s="1">
-        <v>1456.590000</v>
+        <v>1456.59</v>
       </c>
       <c r="BB12" s="1">
-        <v>-364.367000</v>
+        <v>-364.36700000000002</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>75194.670300</v>
+        <v>75194.670299999998</v>
       </c>
       <c r="BE12" s="1">
-        <v>20.887408</v>
+        <v>20.887408000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1543.240000</v>
+        <v>1543.24</v>
       </c>
       <c r="BG12" s="1">
-        <v>-609.818000</v>
+        <v>-609.81799999999998</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>75205.829293</v>
+        <v>75205.829293000003</v>
       </c>
       <c r="BJ12" s="1">
-        <v>20.890508</v>
+        <v>20.890508000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1699.230000</v>
+        <v>1699.23</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1049.080000</v>
+        <v>-1049.08</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>75218.085933</v>
+        <v>75218.085932999995</v>
       </c>
       <c r="BO12" s="1">
-        <v>20.893913</v>
+        <v>20.893913000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1995.480000</v>
+        <v>1995.48</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1807.370000</v>
+        <v>-1807.37</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>75228.617487</v>
+        <v>75228.617486999996</v>
       </c>
       <c r="BT12" s="1">
-        <v>20.896838</v>
+        <v>20.896837999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>2384.200000</v>
+        <v>2384.1999999999998</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2678.220000</v>
+        <v>-2678.22</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>75239.748704</v>
+        <v>75239.748703999998</v>
       </c>
       <c r="BY12" s="1">
-        <v>20.899930</v>
+        <v>20.899930000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2864.780000</v>
+        <v>2864.78</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3629.340000</v>
+        <v>-3629.34</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>75251.648257</v>
+        <v>75251.648256999993</v>
       </c>
       <c r="CD12" s="1">
         <v>20.903236</v>
       </c>
       <c r="CE12" s="1">
-        <v>4258.950000</v>
+        <v>4258.95</v>
       </c>
       <c r="CF12" s="1">
-        <v>-5916.110000</v>
+        <v>-5916.11</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>75078.585125</v>
+        <v>75078.585124999998</v>
       </c>
       <c r="B13" s="1">
-        <v>20.855163</v>
+        <v>20.855163000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>1247.980000</v>
+        <v>1247.98</v>
       </c>
       <c r="D13" s="1">
-        <v>-302.185000</v>
+        <v>-302.185</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>75088.997672</v>
+        <v>75088.997671999998</v>
       </c>
       <c r="G13" s="1">
         <v>20.858055</v>
       </c>
       <c r="H13" s="1">
-        <v>1272.620000</v>
+        <v>1272.6199999999999</v>
       </c>
       <c r="I13" s="1">
-        <v>-262.906000</v>
+        <v>-262.90600000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>75099.835721</v>
+        <v>75099.835720999996</v>
       </c>
       <c r="L13" s="1">
         <v>20.861065</v>
       </c>
       <c r="M13" s="1">
-        <v>1309.610000</v>
+        <v>1309.6099999999999</v>
       </c>
       <c r="N13" s="1">
-        <v>-203.255000</v>
+        <v>-203.255</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>75110.407452</v>
+        <v>75110.407451999999</v>
       </c>
       <c r="Q13" s="1">
-        <v>20.864002</v>
+        <v>20.864001999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>1321.840000</v>
+        <v>1321.84</v>
       </c>
       <c r="S13" s="1">
-        <v>-185.831000</v>
+        <v>-185.83099999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>75120.647854</v>
+        <v>75120.647853999995</v>
       </c>
       <c r="V13" s="1">
         <v>20.866847</v>
       </c>
       <c r="W13" s="1">
-        <v>1335.620000</v>
+        <v>1335.62</v>
       </c>
       <c r="X13" s="1">
-        <v>-172.805000</v>
+        <v>-172.80500000000001</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>75131.215616</v>
+        <v>75131.215616000001</v>
       </c>
       <c r="AA13" s="1">
-        <v>20.869782</v>
+        <v>20.869782000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>1354.130000</v>
+        <v>1354.13</v>
       </c>
       <c r="AC13" s="1">
-        <v>-170.687000</v>
+        <v>-170.68700000000001</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>75141.398515</v>
+        <v>75141.398514999993</v>
       </c>
       <c r="AF13" s="1">
-        <v>20.872611</v>
+        <v>20.872610999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>1367.700000</v>
+        <v>1367.7</v>
       </c>
       <c r="AH13" s="1">
-        <v>-180.396000</v>
+        <v>-180.39599999999999</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>75151.595274</v>
+        <v>75151.595274000007</v>
       </c>
       <c r="AK13" s="1">
-        <v>20.875443</v>
+        <v>20.875443000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>1389.220000</v>
+        <v>1389.22</v>
       </c>
       <c r="AM13" s="1">
-        <v>-210.101000</v>
+        <v>-210.101</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>75161.700765</v>
+        <v>75161.700765000001</v>
       </c>
       <c r="AP13" s="1">
-        <v>20.878250</v>
+        <v>20.878250000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1411.570000</v>
+        <v>1411.57</v>
       </c>
       <c r="AR13" s="1">
-        <v>-253.501000</v>
+        <v>-253.501</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>75172.722329</v>
+        <v>75172.722328999997</v>
       </c>
       <c r="AU13" s="1">
-        <v>20.881312</v>
+        <v>20.881312000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>1436.790000</v>
+        <v>1436.79</v>
       </c>
       <c r="AW13" s="1">
-        <v>-312.844000</v>
+        <v>-312.84399999999999</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>75184.124368</v>
+        <v>75184.124368000004</v>
       </c>
       <c r="AZ13" s="1">
-        <v>20.884479</v>
+        <v>20.884478999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>1456.580000</v>
+        <v>1456.58</v>
       </c>
       <c r="BB13" s="1">
-        <v>-364.385000</v>
+        <v>-364.38499999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>75195.031916</v>
+        <v>75195.031916000007</v>
       </c>
       <c r="BE13" s="1">
-        <v>20.887509</v>
+        <v>20.887509000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1543.230000</v>
+        <v>1543.23</v>
       </c>
       <c r="BG13" s="1">
-        <v>-609.787000</v>
+        <v>-609.78700000000003</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>75206.221132</v>
+        <v>75206.221132000006</v>
       </c>
       <c r="BJ13" s="1">
-        <v>20.890617</v>
+        <v>20.890616999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1699.320000</v>
+        <v>1699.32</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1048.960000</v>
+        <v>-1048.96</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>75218.483751</v>
+        <v>75218.483751000007</v>
       </c>
       <c r="BO13" s="1">
-        <v>20.894023</v>
+        <v>20.894023000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1995.410000</v>
+        <v>1995.41</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1807.540000</v>
+        <v>-1807.54</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>75229.054462</v>
       </c>
       <c r="BT13" s="1">
-        <v>20.896960</v>
+        <v>20.89696</v>
       </c>
       <c r="BU13" s="1">
-        <v>2384.880000</v>
+        <v>2384.88</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2678.180000</v>
+        <v>-2678.18</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>75240.177743</v>
+        <v>75240.177742999993</v>
       </c>
       <c r="BY13" s="1">
-        <v>20.900049</v>
+        <v>20.900048999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2864.310000</v>
+        <v>2864.31</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3629.460000</v>
+        <v>-3629.46</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>75252.190865</v>
+        <v>75252.190864999997</v>
       </c>
       <c r="CD13" s="1">
-        <v>20.903386</v>
+        <v>20.903386000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>4277.520000</v>
+        <v>4277.5200000000004</v>
       </c>
       <c r="CF13" s="1">
-        <v>-5910.690000</v>
+        <v>-5910.69</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>75079.240374</v>
+        <v>75079.240374000001</v>
       </c>
       <c r="B14" s="1">
         <v>20.855345</v>
       </c>
       <c r="C14" s="1">
-        <v>1247.670000</v>
+        <v>1247.67</v>
       </c>
       <c r="D14" s="1">
-        <v>-302.505000</v>
+        <v>-302.505</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>75089.646408</v>
+        <v>75089.646408000001</v>
       </c>
       <c r="G14" s="1">
-        <v>20.858235</v>
+        <v>20.858235000000001</v>
       </c>
       <c r="H14" s="1">
-        <v>1272.550000</v>
+        <v>1272.55</v>
       </c>
       <c r="I14" s="1">
-        <v>-262.959000</v>
+        <v>-262.959</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>75100.215688</v>
+        <v>75100.215687999997</v>
       </c>
       <c r="L14" s="1">
-        <v>20.861171</v>
+        <v>20.861170999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>1309.500000</v>
+        <v>1309.5</v>
       </c>
       <c r="N14" s="1">
-        <v>-203.007000</v>
+        <v>-203.00700000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>75110.773003</v>
+        <v>75110.773002999995</v>
       </c>
       <c r="Q14" s="1">
-        <v>20.864104</v>
+        <v>20.864104000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>1321.890000</v>
+        <v>1321.89</v>
       </c>
       <c r="S14" s="1">
-        <v>-185.736000</v>
+        <v>-185.73599999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>75120.989597</v>
+        <v>75120.989597000007</v>
       </c>
       <c r="V14" s="1">
-        <v>20.866942</v>
+        <v>20.866942000000002</v>
       </c>
       <c r="W14" s="1">
-        <v>1335.770000</v>
+        <v>1335.77</v>
       </c>
       <c r="X14" s="1">
-        <v>-172.665000</v>
+        <v>-172.66499999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>75131.567283</v>
+        <v>75131.567282999997</v>
       </c>
       <c r="AA14" s="1">
-        <v>20.869880</v>
+        <v>20.869879999999998</v>
       </c>
       <c r="AB14" s="1">
-        <v>1354.220000</v>
+        <v>1354.22</v>
       </c>
       <c r="AC14" s="1">
-        <v>-170.719000</v>
+        <v>-170.71899999999999</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>75141.742209</v>
+        <v>75141.742209000004</v>
       </c>
       <c r="AF14" s="1">
-        <v>20.872706</v>
+        <v>20.872706000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>1367.710000</v>
+        <v>1367.71</v>
       </c>
       <c r="AH14" s="1">
-        <v>-180.431000</v>
+        <v>-180.43100000000001</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>75152.023284</v>
+        <v>75152.023283999995</v>
       </c>
       <c r="AK14" s="1">
-        <v>20.875562</v>
+        <v>20.875561999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>1389.170000</v>
+        <v>1389.17</v>
       </c>
       <c r="AM14" s="1">
-        <v>-210.094000</v>
+        <v>-210.09399999999999</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>75161.989400</v>
+        <v>75161.989400000006</v>
       </c>
       <c r="AP14" s="1">
-        <v>20.878330</v>
+        <v>20.878329999999998</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1411.580000</v>
+        <v>1411.58</v>
       </c>
       <c r="AR14" s="1">
-        <v>-253.504000</v>
+        <v>-253.50399999999999</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>75173.022409</v>
+        <v>75173.022408999997</v>
       </c>
       <c r="AU14" s="1">
-        <v>20.881395</v>
+        <v>20.881395000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>1436.830000</v>
+        <v>1436.83</v>
       </c>
       <c r="AW14" s="1">
-        <v>-312.845000</v>
+        <v>-312.84500000000003</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>75184.484489</v>
+        <v>75184.484488999995</v>
       </c>
       <c r="AZ14" s="1">
-        <v>20.884579</v>
+        <v>20.884578999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1456.590000</v>
+        <v>1456.59</v>
       </c>
       <c r="BB14" s="1">
-        <v>-364.401000</v>
+        <v>-364.40100000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>75195.395951</v>
+        <v>75195.395950999999</v>
       </c>
       <c r="BE14" s="1">
-        <v>20.887610</v>
+        <v>20.887609999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1543.240000</v>
+        <v>1543.24</v>
       </c>
       <c r="BG14" s="1">
-        <v>-609.811000</v>
+        <v>-609.81100000000004</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>75206.597633</v>
+        <v>75206.597632999998</v>
       </c>
       <c r="BJ14" s="1">
         <v>20.890722</v>
       </c>
       <c r="BK14" s="1">
-        <v>1699.280000</v>
+        <v>1699.28</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1049.020000</v>
+        <v>-1049.02</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>75218.910789</v>
+        <v>75218.910789000001</v>
       </c>
       <c r="BO14" s="1">
-        <v>20.894142</v>
+        <v>20.894141999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1995.400000</v>
+        <v>1995.4</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1807.430000</v>
+        <v>-1807.43</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>75229.483534</v>
+        <v>75229.483533999999</v>
       </c>
       <c r="BT14" s="1">
-        <v>20.897079</v>
+        <v>20.897079000000002</v>
       </c>
       <c r="BU14" s="1">
-        <v>2385.150000</v>
+        <v>2385.15</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2678.800000</v>
+        <v>-2678.8</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>75240.600831</v>
+        <v>75240.600831000003</v>
       </c>
       <c r="BY14" s="1">
         <v>20.900167</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2864.350000</v>
+        <v>2864.35</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3629.710000</v>
+        <v>-3629.71</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>75252.731984</v>
+        <v>75252.731983999998</v>
       </c>
       <c r="CD14" s="1">
         <v>20.903537</v>
       </c>
       <c r="CE14" s="1">
-        <v>4254.520000</v>
+        <v>4254.5200000000004</v>
       </c>
       <c r="CF14" s="1">
-        <v>-5904.200000</v>
+        <v>-5904.2</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>75079.611844</v>
+        <v>75079.611843999999</v>
       </c>
       <c r="B15" s="1">
-        <v>20.855448</v>
+        <v>20.855447999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>1247.790000</v>
+        <v>1247.79</v>
       </c>
       <c r="D15" s="1">
-        <v>-302.456000</v>
+        <v>-302.45600000000002</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>75090.030807</v>
+        <v>75090.030807000003</v>
       </c>
       <c r="G15" s="1">
         <v>20.858342</v>
       </c>
       <c r="H15" s="1">
-        <v>1273.050000</v>
+        <v>1273.05</v>
       </c>
       <c r="I15" s="1">
-        <v>-262.626000</v>
+        <v>-262.62599999999998</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>75100.563354</v>
+        <v>75100.563353999998</v>
       </c>
       <c r="L15" s="1">
-        <v>20.861268</v>
+        <v>20.861267999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>1309.380000</v>
+        <v>1309.3800000000001</v>
       </c>
       <c r="N15" s="1">
-        <v>-203.221000</v>
+        <v>-203.221</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>75111.123178</v>
+        <v>75111.123177999994</v>
       </c>
       <c r="Q15" s="1">
-        <v>20.864201</v>
+        <v>20.864201000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>1322.000000</v>
+        <v>1322</v>
       </c>
       <c r="S15" s="1">
-        <v>-185.662000</v>
+        <v>-185.66200000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>75121.335321</v>
+        <v>75121.335321000006</v>
       </c>
       <c r="V15" s="1">
-        <v>20.867038</v>
+        <v>20.867038000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>1335.910000</v>
+        <v>1335.91</v>
       </c>
       <c r="X15" s="1">
-        <v>-172.660000</v>
+        <v>-172.66</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
         <v>75131.991855</v>
       </c>
       <c r="AA15" s="1">
-        <v>20.869998</v>
+        <v>20.869997999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>1354.050000</v>
+        <v>1354.05</v>
       </c>
       <c r="AC15" s="1">
-        <v>-170.623000</v>
+        <v>-170.62299999999999</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
         <v>75142.169297</v>
       </c>
       <c r="AF15" s="1">
-        <v>20.872825</v>
+        <v>20.872824999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>1367.740000</v>
+        <v>1367.74</v>
       </c>
       <c r="AH15" s="1">
-        <v>-180.413000</v>
+        <v>-180.41300000000001</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>75152.304021</v>
+        <v>75152.304021000004</v>
       </c>
       <c r="AK15" s="1">
-        <v>20.875640</v>
+        <v>20.875640000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>1389.180000</v>
+        <v>1389.18</v>
       </c>
       <c r="AM15" s="1">
-        <v>-210.112000</v>
+        <v>-210.11199999999999</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>75162.349011</v>
+        <v>75162.349010999998</v>
       </c>
       <c r="AP15" s="1">
-        <v>20.878430</v>
+        <v>20.878430000000002</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1411.600000</v>
+        <v>1411.6</v>
       </c>
       <c r="AR15" s="1">
-        <v>-253.477000</v>
+        <v>-253.477</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>75173.387980</v>
+        <v>75173.38798</v>
       </c>
       <c r="AU15" s="1">
         <v>20.881497</v>
       </c>
       <c r="AV15" s="1">
-        <v>1436.820000</v>
+        <v>1436.82</v>
       </c>
       <c r="AW15" s="1">
-        <v>-312.827000</v>
+        <v>-312.827</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>75184.841578</v>
+        <v>75184.841578000007</v>
       </c>
       <c r="AZ15" s="1">
-        <v>20.884678</v>
+        <v>20.884678000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>1456.590000</v>
+        <v>1456.59</v>
       </c>
       <c r="BB15" s="1">
-        <v>-364.384000</v>
+        <v>-364.38400000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>75196.117130</v>
+        <v>75196.117129999999</v>
       </c>
       <c r="BE15" s="1">
-        <v>20.887810</v>
+        <v>20.887810000000002</v>
       </c>
       <c r="BF15" s="1">
-        <v>1543.230000</v>
+        <v>1543.23</v>
       </c>
       <c r="BG15" s="1">
-        <v>-609.778000</v>
+        <v>-609.77800000000002</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>75207.347579</v>
+        <v>75207.347578999994</v>
       </c>
       <c r="BJ15" s="1">
-        <v>20.890930</v>
+        <v>20.890930000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1699.330000</v>
+        <v>1699.33</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1048.980000</v>
+        <v>-1048.98</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>75219.301164</v>
+        <v>75219.301164000004</v>
       </c>
       <c r="BO15" s="1">
-        <v>20.894250</v>
+        <v>20.89425</v>
       </c>
       <c r="BP15" s="1">
-        <v>1995.310000</v>
+        <v>1995.31</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1807.430000</v>
+        <v>-1807.43</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>75229.896670</v>
+        <v>75229.896670000002</v>
       </c>
       <c r="BT15" s="1">
-        <v>20.897194</v>
+        <v>20.897193999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>2385.680000</v>
+        <v>2385.6799999999998</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2679.350000</v>
+        <v>-2679.35</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>75241.019487</v>
+        <v>75241.019486999998</v>
       </c>
       <c r="BY15" s="1">
-        <v>20.900283</v>
+        <v>20.900283000000002</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2864.390000</v>
+        <v>2864.39</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3629.110000</v>
+        <v>-3629.11</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>75253.581630</v>
+        <v>75253.581630000001</v>
       </c>
       <c r="CD15" s="1">
-        <v>20.903773</v>
+        <v>20.903773000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>4274.820000</v>
+        <v>4274.82</v>
       </c>
       <c r="CF15" s="1">
-        <v>-5902.210000</v>
+        <v>-5902.21</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>75079.957061</v>
+        <v>75079.957060999994</v>
       </c>
       <c r="B16" s="1">
-        <v>20.855544</v>
+        <v>20.855543999999998</v>
       </c>
       <c r="C16" s="1">
-        <v>1247.810000</v>
+        <v>1247.81</v>
       </c>
       <c r="D16" s="1">
-        <v>-302.155000</v>
+        <v>-302.15499999999997</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>75090.378999</v>
+        <v>75090.378998999993</v>
       </c>
       <c r="G16" s="1">
-        <v>20.858439</v>
+        <v>20.858439000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>1272.770000</v>
+        <v>1272.77</v>
       </c>
       <c r="I16" s="1">
-        <v>-263.115000</v>
+        <v>-263.11500000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>75100.908569</v>
+        <v>75100.908569000007</v>
       </c>
       <c r="L16" s="1">
-        <v>20.861363</v>
+        <v>20.861363000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>1309.690000</v>
+        <v>1309.69</v>
       </c>
       <c r="N16" s="1">
-        <v>-203.320000</v>
+        <v>-203.32</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>75111.562634</v>
+        <v>75111.562634000002</v>
       </c>
       <c r="Q16" s="1">
-        <v>20.864323</v>
+        <v>20.864322999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>1321.960000</v>
+        <v>1321.96</v>
       </c>
       <c r="S16" s="1">
-        <v>-185.704000</v>
+        <v>-185.70400000000001</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>75121.769309</v>
+        <v>75121.769308999996</v>
       </c>
       <c r="V16" s="1">
         <v>20.867158</v>
       </c>
       <c r="W16" s="1">
-        <v>1335.810000</v>
+        <v>1335.81</v>
       </c>
       <c r="X16" s="1">
-        <v>-172.655000</v>
+        <v>-172.655</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>75132.270110</v>
+        <v>75132.270109999998</v>
       </c>
       <c r="AA16" s="1">
         <v>20.870075</v>
       </c>
       <c r="AB16" s="1">
-        <v>1353.940000</v>
+        <v>1353.94</v>
       </c>
       <c r="AC16" s="1">
-        <v>-170.717000</v>
+        <v>-170.71700000000001</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>75142.430689</v>
+        <v>75142.430689000001</v>
       </c>
       <c r="AF16" s="1">
-        <v>20.872897</v>
+        <v>20.872896999999998</v>
       </c>
       <c r="AG16" s="1">
-        <v>1367.690000</v>
+        <v>1367.69</v>
       </c>
       <c r="AH16" s="1">
-        <v>-180.462000</v>
+        <v>-180.46199999999999</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>75152.655684</v>
+        <v>75152.655683999998</v>
       </c>
       <c r="AK16" s="1">
-        <v>20.875738</v>
+        <v>20.875737999999998</v>
       </c>
       <c r="AL16" s="1">
-        <v>1389.200000</v>
+        <v>1389.2</v>
       </c>
       <c r="AM16" s="1">
-        <v>-210.097000</v>
+        <v>-210.09700000000001</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>75162.708635</v>
+        <v>75162.708635000003</v>
       </c>
       <c r="AP16" s="1">
-        <v>20.878530</v>
+        <v>20.878530000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1411.590000</v>
+        <v>1411.59</v>
       </c>
       <c r="AR16" s="1">
-        <v>-253.501000</v>
+        <v>-253.501</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>75173.751063</v>
+        <v>75173.751063000003</v>
       </c>
       <c r="AU16" s="1">
         <v>20.881598</v>
       </c>
       <c r="AV16" s="1">
-        <v>1436.840000</v>
+        <v>1436.84</v>
       </c>
       <c r="AW16" s="1">
-        <v>-312.875000</v>
+        <v>-312.875</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>75185.562263</v>
@@ -4229,300 +4645,300 @@
         <v>20.884878</v>
       </c>
       <c r="BA16" s="1">
-        <v>1456.580000</v>
+        <v>1456.58</v>
       </c>
       <c r="BB16" s="1">
-        <v>-364.408000</v>
+        <v>-364.40800000000002</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>75196.501529</v>
+        <v>75196.501529000001</v>
       </c>
       <c r="BE16" s="1">
-        <v>20.887917</v>
+        <v>20.887917000000002</v>
       </c>
       <c r="BF16" s="1">
-        <v>1543.230000</v>
+        <v>1543.23</v>
       </c>
       <c r="BG16" s="1">
-        <v>-609.822000</v>
+        <v>-609.822</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>75207.720081</v>
+        <v>75207.720081000007</v>
       </c>
       <c r="BJ16" s="1">
         <v>20.891033</v>
       </c>
       <c r="BK16" s="1">
-        <v>1699.280000</v>
+        <v>1699.28</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1048.960000</v>
+        <v>-1048.96</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>75219.723227</v>
+        <v>75219.723226999995</v>
       </c>
       <c r="BO16" s="1">
         <v>20.894368</v>
       </c>
       <c r="BP16" s="1">
-        <v>1995.420000</v>
+        <v>1995.42</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1807.370000</v>
+        <v>-1807.37</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>75230.643148</v>
+        <v>75230.643148000003</v>
       </c>
       <c r="BT16" s="1">
-        <v>20.897401</v>
+        <v>20.897400999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>2385.200000</v>
+        <v>2385.1999999999998</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2680.120000</v>
+        <v>-2680.12</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>75241.755518</v>
+        <v>75241.755518000005</v>
       </c>
       <c r="BY16" s="1">
-        <v>20.900488</v>
+        <v>20.900487999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2863.780000</v>
+        <v>2863.78</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3629.300000</v>
+        <v>-3629.3</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
         <v>75253.810287</v>
       </c>
       <c r="CD16" s="1">
-        <v>20.903836</v>
+        <v>20.903835999999998</v>
       </c>
       <c r="CE16" s="1">
-        <v>4276.450000</v>
+        <v>4276.45</v>
       </c>
       <c r="CF16" s="1">
-        <v>-5907.800000</v>
+        <v>-5907.8</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>75080.299795</v>
+        <v>75080.299794999999</v>
       </c>
       <c r="B17" s="1">
         <v>20.855639</v>
       </c>
       <c r="C17" s="1">
-        <v>1247.830000</v>
+        <v>1247.83</v>
       </c>
       <c r="D17" s="1">
-        <v>-302.171000</v>
+        <v>-302.17099999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>75090.719254</v>
+        <v>75090.719253999996</v>
       </c>
       <c r="G17" s="1">
-        <v>20.858533</v>
+        <v>20.858533000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>1272.520000</v>
+        <v>1272.52</v>
       </c>
       <c r="I17" s="1">
-        <v>-262.779000</v>
+        <v>-262.779</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>75101.331190</v>
+        <v>75101.331189999997</v>
       </c>
       <c r="L17" s="1">
-        <v>20.861481</v>
+        <v>20.861481000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>1309.550000</v>
+        <v>1309.55</v>
       </c>
       <c r="N17" s="1">
-        <v>-203.013000</v>
+        <v>-203.01300000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>75111.840889</v>
+        <v>75111.840888999999</v>
       </c>
       <c r="Q17" s="1">
-        <v>20.864400</v>
+        <v>20.8644</v>
       </c>
       <c r="R17" s="1">
-        <v>1321.980000</v>
+        <v>1321.98</v>
       </c>
       <c r="S17" s="1">
-        <v>-185.759000</v>
+        <v>-185.75899999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>75122.043100</v>
+        <v>75122.043099999995</v>
       </c>
       <c r="V17" s="1">
         <v>20.867234</v>
       </c>
       <c r="W17" s="1">
-        <v>1335.770000</v>
+        <v>1335.77</v>
       </c>
       <c r="X17" s="1">
-        <v>-172.723000</v>
+        <v>-172.72300000000001</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>75132.623757</v>
+        <v>75132.623756999994</v>
       </c>
       <c r="AA17" s="1">
-        <v>20.870173</v>
+        <v>20.870173000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>1354.150000</v>
+        <v>1354.15</v>
       </c>
       <c r="AC17" s="1">
-        <v>-170.709000</v>
+        <v>-170.709</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>75142.773890</v>
+        <v>75142.773889999997</v>
       </c>
       <c r="AF17" s="1">
-        <v>20.872993</v>
+        <v>20.872993000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>1367.710000</v>
+        <v>1367.71</v>
       </c>
       <c r="AH17" s="1">
-        <v>-180.440000</v>
+        <v>-180.44</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>75152.992467</v>
+        <v>75152.992467000004</v>
       </c>
       <c r="AK17" s="1">
-        <v>20.875831</v>
+        <v>20.875831000000002</v>
       </c>
       <c r="AL17" s="1">
-        <v>1389.190000</v>
+        <v>1389.19</v>
       </c>
       <c r="AM17" s="1">
-        <v>-210.122000</v>
+        <v>-210.12200000000001</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>75163.425818</v>
+        <v>75163.425818000003</v>
       </c>
       <c r="AP17" s="1">
         <v>20.878729</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1411.590000</v>
+        <v>1411.59</v>
       </c>
       <c r="AR17" s="1">
-        <v>-253.514000</v>
+        <v>-253.51400000000001</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>75174.481640</v>
+        <v>75174.481639999998</v>
       </c>
       <c r="AU17" s="1">
-        <v>20.881800</v>
+        <v>20.881799999999998</v>
       </c>
       <c r="AV17" s="1">
-        <v>1436.830000</v>
+        <v>1436.83</v>
       </c>
       <c r="AW17" s="1">
-        <v>-312.826000</v>
+        <v>-312.82600000000002</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>75185.920377</v>
+        <v>75185.920377000002</v>
       </c>
       <c r="AZ17" s="1">
         <v>20.884978</v>
       </c>
       <c r="BA17" s="1">
-        <v>1456.580000</v>
+        <v>1456.58</v>
       </c>
       <c r="BB17" s="1">
-        <v>-364.377000</v>
+        <v>-364.37700000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>75196.882954</v>
+        <v>75196.882954000001</v>
       </c>
       <c r="BE17" s="1">
         <v>20.888023</v>
       </c>
       <c r="BF17" s="1">
-        <v>1543.250000</v>
+        <v>1543.25</v>
       </c>
       <c r="BG17" s="1">
-        <v>-609.773000</v>
+        <v>-609.77300000000002</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>75208.096506</v>
+        <v>75208.096506000002</v>
       </c>
       <c r="BJ17" s="1">
-        <v>20.891138</v>
+        <v>20.891138000000002</v>
       </c>
       <c r="BK17" s="1">
-        <v>1699.270000</v>
+        <v>1699.27</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1048.970000</v>
+        <v>-1048.97</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>75220.444441</v>
@@ -4531,784 +4947,784 @@
         <v>20.894568</v>
       </c>
       <c r="BP17" s="1">
-        <v>1995.330000</v>
+        <v>1995.33</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1807.480000</v>
+        <v>-1807.48</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>75230.754748</v>
+        <v>75230.754748000007</v>
       </c>
       <c r="BT17" s="1">
-        <v>20.897432</v>
+        <v>20.897431999999998</v>
       </c>
       <c r="BU17" s="1">
-        <v>2385.460000</v>
+        <v>2385.46</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2681.130000</v>
+        <v>-2681.13</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>75241.867615</v>
+        <v>75241.867614999996</v>
       </c>
       <c r="BY17" s="1">
-        <v>20.900519</v>
+        <v>20.900518999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2863.860000</v>
+        <v>2863.86</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3630.090000</v>
+        <v>-3630.09</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>75254.333565</v>
+        <v>75254.333564999994</v>
       </c>
       <c r="CD17" s="1">
-        <v>20.903982</v>
+        <v>20.903981999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>4263.700000</v>
+        <v>4263.7</v>
       </c>
       <c r="CF17" s="1">
-        <v>-5897.680000</v>
+        <v>-5897.68</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>75080.726355</v>
+        <v>75080.726355000006</v>
       </c>
       <c r="B18" s="1">
-        <v>20.855757</v>
+        <v>20.855757000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>1247.950000</v>
+        <v>1247.95</v>
       </c>
       <c r="D18" s="1">
-        <v>-302.226000</v>
+        <v>-302.226</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>75091.140357</v>
+        <v>75091.140356999997</v>
       </c>
       <c r="G18" s="1">
-        <v>20.858650</v>
+        <v>20.858650000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>1272.820000</v>
+        <v>1272.82</v>
       </c>
       <c r="I18" s="1">
-        <v>-261.733000</v>
+        <v>-261.733</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>75101.611400</v>
+        <v>75101.611399999994</v>
       </c>
       <c r="L18" s="1">
         <v>20.861559</v>
       </c>
       <c r="M18" s="1">
-        <v>1309.280000</v>
+        <v>1309.28</v>
       </c>
       <c r="N18" s="1">
-        <v>-203.167000</v>
+        <v>-203.167</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>75112.187097</v>
+        <v>75112.187097000002</v>
       </c>
       <c r="Q18" s="1">
-        <v>20.864496</v>
+        <v>20.864495999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>1321.820000</v>
+        <v>1321.82</v>
       </c>
       <c r="S18" s="1">
-        <v>-185.833000</v>
+        <v>-185.833</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>75122.387324</v>
+        <v>75122.387323999996</v>
       </c>
       <c r="V18" s="1">
-        <v>20.867330</v>
+        <v>20.867329999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>1336.000000</v>
+        <v>1336</v>
       </c>
       <c r="X18" s="1">
-        <v>-172.660000</v>
+        <v>-172.66</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>75132.975421</v>
+        <v>75132.975420999996</v>
       </c>
       <c r="AA18" s="1">
-        <v>20.870271</v>
+        <v>20.870270999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>1354.060000</v>
+        <v>1354.06</v>
       </c>
       <c r="AC18" s="1">
-        <v>-170.731000</v>
+        <v>-170.73099999999999</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>75143.123073</v>
+        <v>75143.123072999995</v>
       </c>
       <c r="AF18" s="1">
-        <v>20.873090</v>
+        <v>20.873090000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>1367.710000</v>
+        <v>1367.71</v>
       </c>
       <c r="AH18" s="1">
-        <v>-180.453000</v>
+        <v>-180.453</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>75153.696787</v>
+        <v>75153.696786999993</v>
       </c>
       <c r="AK18" s="1">
-        <v>20.876027</v>
+        <v>20.876027000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>1389.160000</v>
+        <v>1389.16</v>
       </c>
       <c r="AM18" s="1">
-        <v>-210.065000</v>
+        <v>-210.065</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
         <v>75163.787398</v>
       </c>
       <c r="AP18" s="1">
-        <v>20.878830</v>
+        <v>20.878830000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1411.570000</v>
+        <v>1411.57</v>
       </c>
       <c r="AR18" s="1">
-        <v>-253.480000</v>
+        <v>-253.48</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>75174.873479</v>
+        <v>75174.873479000002</v>
       </c>
       <c r="AU18" s="1">
         <v>20.881909</v>
       </c>
       <c r="AV18" s="1">
-        <v>1436.820000</v>
+        <v>1436.82</v>
       </c>
       <c r="AW18" s="1">
-        <v>-312.857000</v>
+        <v>-312.85700000000003</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>75186.279480</v>
+        <v>75186.279479999997</v>
       </c>
       <c r="AZ18" s="1">
         <v>20.885078</v>
       </c>
       <c r="BA18" s="1">
-        <v>1456.600000</v>
+        <v>1456.6</v>
       </c>
       <c r="BB18" s="1">
-        <v>-364.381000</v>
+        <v>-364.38099999999997</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>75197.568921</v>
+        <v>75197.568920999998</v>
       </c>
       <c r="BE18" s="1">
-        <v>20.888214</v>
+        <v>20.888214000000001</v>
       </c>
       <c r="BF18" s="1">
-        <v>1543.260000</v>
+        <v>1543.26</v>
       </c>
       <c r="BG18" s="1">
-        <v>-609.790000</v>
+        <v>-609.79</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>75208.815209</v>
+        <v>75208.815208999993</v>
       </c>
       <c r="BJ18" s="1">
-        <v>20.891338</v>
+        <v>20.891338000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1699.280000</v>
+        <v>1699.28</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1048.950000</v>
+        <v>-1048.95</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>75220.556506</v>
+        <v>75220.556505999994</v>
       </c>
       <c r="BO18" s="1">
-        <v>20.894599</v>
+        <v>20.894598999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1995.190000</v>
+        <v>1995.19</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1807.310000</v>
+        <v>-1807.31</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>75231.195693</v>
+        <v>75231.195693000001</v>
       </c>
       <c r="BT18" s="1">
         <v>20.897554</v>
       </c>
       <c r="BU18" s="1">
-        <v>2384.550000</v>
+        <v>2384.5500000000002</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2681.590000</v>
+        <v>-2681.59</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>75242.300125</v>
+        <v>75242.300124999994</v>
       </c>
       <c r="BY18" s="1">
-        <v>20.900639</v>
+        <v>20.900639000000002</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2864.630000</v>
+        <v>2864.63</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3629.700000</v>
+        <v>-3629.7</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>75254.846428</v>
+        <v>75254.846428000004</v>
       </c>
       <c r="CD18" s="1">
-        <v>20.904124</v>
+        <v>20.904123999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>4272.060000</v>
+        <v>4272.0600000000004</v>
       </c>
       <c r="CF18" s="1">
-        <v>-5902.400000</v>
+        <v>-5902.4</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>75080.997699</v>
       </c>
       <c r="B19" s="1">
-        <v>20.855833</v>
+        <v>20.855833000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>1248.110000</v>
+        <v>1248.1099999999999</v>
       </c>
       <c r="D19" s="1">
-        <v>-302.311000</v>
+        <v>-302.31099999999998</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>75091.433492</v>
+        <v>75091.433491999996</v>
       </c>
       <c r="G19" s="1">
         <v>20.858732</v>
       </c>
       <c r="H19" s="1">
-        <v>1272.240000</v>
+        <v>1272.24</v>
       </c>
       <c r="I19" s="1">
-        <v>-262.670000</v>
+        <v>-262.67</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>75101.957606</v>
+        <v>75101.957605999996</v>
       </c>
       <c r="L19" s="1">
-        <v>20.861655</v>
+        <v>20.861654999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>1309.380000</v>
+        <v>1309.3800000000001</v>
       </c>
       <c r="N19" s="1">
-        <v>-202.887000</v>
+        <v>-202.887</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>75112.537274</v>
+        <v>75112.537274000002</v>
       </c>
       <c r="Q19" s="1">
         <v>20.864594</v>
       </c>
       <c r="R19" s="1">
-        <v>1321.890000</v>
+        <v>1321.89</v>
       </c>
       <c r="S19" s="1">
-        <v>-185.715000</v>
+        <v>-185.715</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>75122.729563</v>
+        <v>75122.729563000001</v>
       </c>
       <c r="V19" s="1">
-        <v>20.867425</v>
+        <v>20.867425000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>1336.000000</v>
+        <v>1336</v>
       </c>
       <c r="X19" s="1">
-        <v>-172.466000</v>
+        <v>-172.46600000000001</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>75133.671805</v>
+        <v>75133.671805000005</v>
       </c>
       <c r="AA19" s="1">
-        <v>20.870464</v>
+        <v>20.870463999999998</v>
       </c>
       <c r="AB19" s="1">
-        <v>1354.320000</v>
+        <v>1354.32</v>
       </c>
       <c r="AC19" s="1">
-        <v>-170.694000</v>
+        <v>-170.69399999999999</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>75143.864107</v>
+        <v>75143.864107000001</v>
       </c>
       <c r="AF19" s="1">
         <v>20.873296</v>
       </c>
       <c r="AG19" s="1">
-        <v>1367.620000</v>
+        <v>1367.62</v>
       </c>
       <c r="AH19" s="1">
-        <v>-180.416000</v>
+        <v>-180.416</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>75154.047954</v>
+        <v>75154.047953999994</v>
       </c>
       <c r="AK19" s="1">
-        <v>20.876124</v>
+        <v>20.876124000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>1389.180000</v>
+        <v>1389.18</v>
       </c>
       <c r="AM19" s="1">
-        <v>-210.063000</v>
+        <v>-210.06299999999999</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>75164.147492</v>
+        <v>75164.147492000004</v>
       </c>
       <c r="AP19" s="1">
-        <v>20.878930</v>
+        <v>20.87893</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1411.580000</v>
+        <v>1411.58</v>
       </c>
       <c r="AR19" s="1">
-        <v>-253.487000</v>
+        <v>-253.48699999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>75175.239029</v>
+        <v>75175.239029000004</v>
       </c>
       <c r="AU19" s="1">
-        <v>20.882011</v>
+        <v>20.882010999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>1436.860000</v>
+        <v>1436.86</v>
       </c>
       <c r="AW19" s="1">
-        <v>-312.853000</v>
+        <v>-312.85300000000001</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>75186.970420</v>
+        <v>75186.970419999998</v>
       </c>
       <c r="AZ19" s="1">
-        <v>20.885270</v>
+        <v>20.885269999999998</v>
       </c>
       <c r="BA19" s="1">
-        <v>1456.590000</v>
+        <v>1456.59</v>
       </c>
       <c r="BB19" s="1">
-        <v>-364.375000</v>
+        <v>-364.375</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>75197.968199</v>
+        <v>75197.968198999995</v>
       </c>
       <c r="BE19" s="1">
-        <v>20.888324</v>
+        <v>20.888324000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1543.230000</v>
+        <v>1543.23</v>
       </c>
       <c r="BG19" s="1">
-        <v>-609.780000</v>
+        <v>-609.78</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>75209.251194</v>
+        <v>75209.251193999997</v>
       </c>
       <c r="BJ19" s="1">
-        <v>20.891459</v>
+        <v>20.891459000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1699.350000</v>
+        <v>1699.35</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1048.940000</v>
+        <v>-1048.94</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>75220.965242</v>
+        <v>75220.965242000006</v>
       </c>
       <c r="BO19" s="1">
-        <v>20.894713</v>
+        <v>20.894712999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1995.360000</v>
+        <v>1995.36</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1807.410000</v>
+        <v>-1807.41</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>75231.606875</v>
+        <v>75231.606874999998</v>
       </c>
       <c r="BT19" s="1">
         <v>20.897669</v>
       </c>
       <c r="BU19" s="1">
-        <v>2384.080000</v>
+        <v>2384.08</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2681.830000</v>
+        <v>-2681.83</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>75242.725028</v>
+        <v>75242.725028000001</v>
       </c>
       <c r="BY19" s="1">
-        <v>20.900757</v>
+        <v>20.900756999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2864.750000</v>
+        <v>2864.75</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3629.480000</v>
+        <v>-3629.48</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>75255.402494</v>
+        <v>75255.402493999994</v>
       </c>
       <c r="CD19" s="1">
-        <v>20.904278</v>
+        <v>20.904278000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>4275.540000</v>
+        <v>4275.54</v>
       </c>
       <c r="CF19" s="1">
-        <v>-5915.790000</v>
+        <v>-5915.79</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>75081.337426</v>
+        <v>75081.337425999998</v>
       </c>
       <c r="B20" s="1">
-        <v>20.855927</v>
+        <v>20.855927000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>1247.560000</v>
+        <v>1247.56</v>
       </c>
       <c r="D20" s="1">
-        <v>-302.256000</v>
+        <v>-302.25599999999997</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>75091.780724</v>
+        <v>75091.780723999997</v>
       </c>
       <c r="G20" s="1">
-        <v>20.858828</v>
+        <v>20.858827999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>1272.590000</v>
+        <v>1272.5899999999999</v>
       </c>
       <c r="I20" s="1">
-        <v>-262.963000</v>
+        <v>-262.96300000000002</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>75102.303330</v>
+        <v>75102.303329999995</v>
       </c>
       <c r="L20" s="1">
-        <v>20.861751</v>
+        <v>20.861751000000002</v>
       </c>
       <c r="M20" s="1">
-        <v>1309.470000</v>
+        <v>1309.47</v>
       </c>
       <c r="N20" s="1">
-        <v>-203.275000</v>
+        <v>-203.27500000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>75113.232200</v>
+        <v>75113.232199999999</v>
       </c>
       <c r="Q20" s="1">
         <v>20.864787</v>
       </c>
       <c r="R20" s="1">
-        <v>1321.940000</v>
+        <v>1321.94</v>
       </c>
       <c r="S20" s="1">
-        <v>-185.675000</v>
+        <v>-185.67500000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>75123.416026</v>
+        <v>75123.416026000006</v>
       </c>
       <c r="V20" s="1">
-        <v>20.867616</v>
+        <v>20.867616000000002</v>
       </c>
       <c r="W20" s="1">
-        <v>1336.020000</v>
+        <v>1336.02</v>
       </c>
       <c r="X20" s="1">
-        <v>-172.593000</v>
+        <v>-172.59299999999999</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>75134.019036</v>
+        <v>75134.019035999998</v>
       </c>
       <c r="AA20" s="1">
-        <v>20.870561</v>
+        <v>20.870560999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>1354.100000</v>
+        <v>1354.1</v>
       </c>
       <c r="AC20" s="1">
-        <v>-170.730000</v>
+        <v>-170.73</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>75144.166995</v>
+        <v>75144.166995000007</v>
       </c>
       <c r="AF20" s="1">
-        <v>20.873380</v>
+        <v>20.873380000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>1367.550000</v>
+        <v>1367.55</v>
       </c>
       <c r="AH20" s="1">
-        <v>-180.488000</v>
+        <v>-180.488</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>75154.399617</v>
+        <v>75154.399617000003</v>
       </c>
       <c r="AK20" s="1">
-        <v>20.876222</v>
+        <v>20.876221999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>1389.210000</v>
+        <v>1389.21</v>
       </c>
       <c r="AM20" s="1">
-        <v>-210.105000</v>
+        <v>-210.10499999999999</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>75164.817092</v>
+        <v>75164.817091999998</v>
       </c>
       <c r="AP20" s="1">
         <v>20.879116</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1411.600000</v>
+        <v>1411.6</v>
       </c>
       <c r="AR20" s="1">
-        <v>-253.499000</v>
+        <v>-253.499</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>75175.918581</v>
+        <v>75175.918581000005</v>
       </c>
       <c r="AU20" s="1">
-        <v>20.882200</v>
+        <v>20.882200000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>1436.840000</v>
+        <v>1436.84</v>
       </c>
       <c r="AW20" s="1">
-        <v>-312.828000</v>
+        <v>-312.82799999999997</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>75187.353318</v>
+        <v>75187.353317999994</v>
       </c>
       <c r="AZ20" s="1">
-        <v>20.885376</v>
+        <v>20.885376000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>1456.620000</v>
+        <v>1456.62</v>
       </c>
       <c r="BB20" s="1">
-        <v>-364.418000</v>
+        <v>-364.41800000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>75198.353127</v>
+        <v>75198.353126999995</v>
       </c>
       <c r="BE20" s="1">
-        <v>20.888431</v>
+        <v>20.888431000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1543.260000</v>
+        <v>1543.26</v>
       </c>
       <c r="BG20" s="1">
-        <v>-609.822000</v>
+        <v>-609.822</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>75209.652456</v>
+        <v>75209.652455999996</v>
       </c>
       <c r="BJ20" s="1">
-        <v>20.891570</v>
+        <v>20.891570000000002</v>
       </c>
       <c r="BK20" s="1">
-        <v>1699.230000</v>
+        <v>1699.23</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1048.930000</v>
+        <v>-1048.93</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>75221.362009</v>
+        <v>75221.362009000004</v>
       </c>
       <c r="BO20" s="1">
-        <v>20.894823</v>
+        <v>20.894822999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1995.360000</v>
+        <v>1995.36</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1807.510000</v>
+        <v>-1807.51</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
         <v>75232.038923</v>
@@ -5317,1133 +5733,1133 @@
         <v>20.897789</v>
       </c>
       <c r="BU20" s="1">
-        <v>2383.230000</v>
+        <v>2383.23</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2682.090000</v>
+        <v>-2682.09</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>75243.156220</v>
+        <v>75243.156220000004</v>
       </c>
       <c r="BY20" s="1">
-        <v>20.900877</v>
+        <v>20.900877000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2864.010000</v>
+        <v>2864.01</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3629.370000</v>
+        <v>-3629.37</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>75255.929691</v>
+        <v>75255.929690999998</v>
       </c>
       <c r="CD20" s="1">
         <v>20.904425</v>
       </c>
       <c r="CE20" s="1">
-        <v>4271.190000</v>
+        <v>4271.1899999999996</v>
       </c>
       <c r="CF20" s="1">
-        <v>-5899.190000</v>
+        <v>-5899.19</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>75081.684625</v>
+        <v>75081.684624999994</v>
       </c>
       <c r="B21" s="1">
-        <v>20.856024</v>
+        <v>20.856024000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>1247.510000</v>
+        <v>1247.51</v>
       </c>
       <c r="D21" s="1">
-        <v>-302.568000</v>
+        <v>-302.56799999999998</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>75092.124420</v>
+        <v>75092.124419999993</v>
       </c>
       <c r="G21" s="1">
-        <v>20.858923</v>
+        <v>20.858923000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>1272.170000</v>
+        <v>1272.17</v>
       </c>
       <c r="I21" s="1">
-        <v>-263.391000</v>
+        <v>-263.39100000000002</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>75103.000700</v>
+        <v>75103.000700000004</v>
       </c>
       <c r="L21" s="1">
-        <v>20.861945</v>
+        <v>20.861944999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>1309.720000</v>
+        <v>1309.72</v>
       </c>
       <c r="N21" s="1">
-        <v>-202.934000</v>
+        <v>-202.934</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>75113.582840</v>
+        <v>75113.582840000003</v>
       </c>
       <c r="Q21" s="1">
         <v>20.864884</v>
       </c>
       <c r="R21" s="1">
-        <v>1321.980000</v>
+        <v>1321.98</v>
       </c>
       <c r="S21" s="1">
-        <v>-185.673000</v>
+        <v>-185.673</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>75123.759257</v>
+        <v>75123.759256999998</v>
       </c>
       <c r="V21" s="1">
         <v>20.867711</v>
       </c>
       <c r="W21" s="1">
-        <v>1335.790000</v>
+        <v>1335.79</v>
       </c>
       <c r="X21" s="1">
-        <v>-172.579000</v>
+        <v>-172.57900000000001</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>75134.366203</v>
+        <v>75134.366202999998</v>
       </c>
       <c r="AA21" s="1">
-        <v>20.870657</v>
+        <v>20.870657000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>1354.070000</v>
+        <v>1354.07</v>
       </c>
       <c r="AC21" s="1">
-        <v>-170.741000</v>
+        <v>-170.74100000000001</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>75144.825838</v>
+        <v>75144.825838000004</v>
       </c>
       <c r="AF21" s="1">
-        <v>20.873563</v>
+        <v>20.873563000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>1367.640000</v>
+        <v>1367.64</v>
       </c>
       <c r="AH21" s="1">
-        <v>-180.399000</v>
+        <v>-180.399</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>75155.058304</v>
+        <v>75155.058304000006</v>
       </c>
       <c r="AK21" s="1">
-        <v>20.876405</v>
+        <v>20.876404999999998</v>
       </c>
       <c r="AL21" s="1">
-        <v>1389.180000</v>
+        <v>1389.18</v>
       </c>
       <c r="AM21" s="1">
-        <v>-210.072000</v>
+        <v>-210.072</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>75165.254562</v>
+        <v>75165.254562000002</v>
       </c>
       <c r="AP21" s="1">
         <v>20.879237</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1411.560000</v>
+        <v>1411.56</v>
       </c>
       <c r="AR21" s="1">
-        <v>-253.512000</v>
+        <v>-253.512</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>75176.364948</v>
+        <v>75176.364948000002</v>
       </c>
       <c r="AU21" s="1">
-        <v>20.882324</v>
+        <v>20.882324000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>1436.810000</v>
+        <v>1436.81</v>
       </c>
       <c r="AW21" s="1">
-        <v>-312.852000</v>
+        <v>-312.85199999999998</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>75187.712428</v>
+        <v>75187.712427999999</v>
       </c>
       <c r="AZ21" s="1">
-        <v>20.885476</v>
+        <v>20.885476000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>1456.620000</v>
+        <v>1456.62</v>
       </c>
       <c r="BB21" s="1">
-        <v>-364.388000</v>
+        <v>-364.38799999999998</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>75198.716168</v>
+        <v>75198.716167999999</v>
       </c>
       <c r="BE21" s="1">
-        <v>20.888532</v>
+        <v>20.888532000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1543.210000</v>
+        <v>1543.21</v>
       </c>
       <c r="BG21" s="1">
-        <v>-609.785000</v>
+        <v>-609.78499999999997</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>75210.030408</v>
+        <v>75210.030408000006</v>
       </c>
       <c r="BJ21" s="1">
-        <v>20.891675</v>
+        <v>20.891674999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1699.250000</v>
+        <v>1699.25</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1048.910000</v>
+        <v>-1048.9100000000001</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>75221.786120</v>
+        <v>75221.786120000004</v>
       </c>
       <c r="BO21" s="1">
-        <v>20.894941</v>
+        <v>20.894940999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1995.370000</v>
+        <v>1995.37</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1807.300000</v>
+        <v>-1807.3</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>75232.465978</v>
+        <v>75232.465977999993</v>
       </c>
       <c r="BT21" s="1">
         <v>20.897907</v>
       </c>
       <c r="BU21" s="1">
-        <v>2382.660000</v>
+        <v>2382.66</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2682.300000</v>
+        <v>-2682.3</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>75243.575835</v>
+        <v>75243.575834999996</v>
       </c>
       <c r="BY21" s="1">
         <v>20.900993</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2864.350000</v>
+        <v>2864.35</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3629.630000</v>
+        <v>-3629.63</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>75256.451482</v>
+        <v>75256.451482000004</v>
       </c>
       <c r="CD21" s="1">
-        <v>20.904570</v>
+        <v>20.90457</v>
       </c>
       <c r="CE21" s="1">
-        <v>4255.660000</v>
+        <v>4255.66</v>
       </c>
       <c r="CF21" s="1">
-        <v>-5904.170000</v>
+        <v>-5904.17</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>75082.364146</v>
+        <v>75082.364146000007</v>
       </c>
       <c r="B22" s="1">
-        <v>20.856212</v>
+        <v>20.856211999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>1247.950000</v>
+        <v>1247.95</v>
       </c>
       <c r="D22" s="1">
-        <v>-302.454000</v>
+        <v>-302.45400000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>75092.813859</v>
+        <v>75092.813859000002</v>
       </c>
       <c r="G22" s="1">
-        <v>20.859115</v>
+        <v>20.859114999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>1273.120000</v>
+        <v>1273.1199999999999</v>
       </c>
       <c r="I22" s="1">
-        <v>-263.453000</v>
+        <v>-263.45299999999997</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>75103.350868</v>
+        <v>75103.350867999994</v>
       </c>
       <c r="L22" s="1">
-        <v>20.862042</v>
+        <v>20.862041999999999</v>
       </c>
       <c r="M22" s="1">
-        <v>1309.410000</v>
+        <v>1309.4100000000001</v>
       </c>
       <c r="N22" s="1">
-        <v>-203.034000</v>
+        <v>-203.03399999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>75113.929543</v>
+        <v>75113.929543000006</v>
       </c>
       <c r="Q22" s="1">
-        <v>20.864980</v>
+        <v>20.864979999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>1322.000000</v>
+        <v>1322</v>
       </c>
       <c r="S22" s="1">
-        <v>-185.789000</v>
+        <v>-185.78899999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>75124.104970</v>
+        <v>75124.10497</v>
       </c>
       <c r="V22" s="1">
-        <v>20.867807</v>
+        <v>20.867806999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>1336.010000</v>
+        <v>1336.01</v>
       </c>
       <c r="X22" s="1">
-        <v>-172.584000</v>
+        <v>-172.584</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>75135.032827</v>
+        <v>75135.032827000003</v>
       </c>
       <c r="AA22" s="1">
         <v>20.870842</v>
       </c>
       <c r="AB22" s="1">
-        <v>1354.180000</v>
+        <v>1354.18</v>
       </c>
       <c r="AC22" s="1">
-        <v>-170.583000</v>
+        <v>-170.583</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>75145.199358</v>
+        <v>75145.199357999998</v>
       </c>
       <c r="AF22" s="1">
         <v>20.873666</v>
       </c>
       <c r="AG22" s="1">
-        <v>1367.680000</v>
+        <v>1367.68</v>
       </c>
       <c r="AH22" s="1">
-        <v>-180.449000</v>
+        <v>-180.44900000000001</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>75155.441220</v>
+        <v>75155.441219999993</v>
       </c>
       <c r="AK22" s="1">
-        <v>20.876511</v>
+        <v>20.876511000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>1389.170000</v>
+        <v>1389.17</v>
       </c>
       <c r="AM22" s="1">
-        <v>-210.093000</v>
+        <v>-210.09299999999999</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>75165.616147</v>
+        <v>75165.616146999993</v>
       </c>
       <c r="AP22" s="1">
-        <v>20.879338</v>
+        <v>20.879338000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1411.590000</v>
+        <v>1411.59</v>
       </c>
       <c r="AR22" s="1">
-        <v>-253.484000</v>
+        <v>-253.48400000000001</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>75176.730996</v>
+        <v>75176.730995999998</v>
       </c>
       <c r="AU22" s="1">
-        <v>20.882425</v>
+        <v>20.882425000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>1436.840000</v>
+        <v>1436.84</v>
       </c>
       <c r="AW22" s="1">
-        <v>-312.842000</v>
+        <v>-312.84199999999998</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>75188.071028</v>
+        <v>75188.071028000006</v>
       </c>
       <c r="AZ22" s="1">
-        <v>20.885575</v>
+        <v>20.885574999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1456.620000</v>
+        <v>1456.62</v>
       </c>
       <c r="BB22" s="1">
-        <v>-364.355000</v>
+        <v>-364.35500000000002</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>75199.139782</v>
+        <v>75199.139781999998</v>
       </c>
       <c r="BE22" s="1">
-        <v>20.888650</v>
+        <v>20.888649999999998</v>
       </c>
       <c r="BF22" s="1">
-        <v>1543.280000</v>
+        <v>1543.28</v>
       </c>
       <c r="BG22" s="1">
-        <v>-609.781000</v>
+        <v>-609.78099999999995</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>75210.803708</v>
+        <v>75210.803708000007</v>
       </c>
       <c r="BJ22" s="1">
-        <v>20.891890</v>
+        <v>20.89189</v>
       </c>
       <c r="BK22" s="1">
-        <v>1699.270000</v>
+        <v>1699.27</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1048.930000</v>
+        <v>-1048.93</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>75222.192808</v>
+        <v>75222.192808000007</v>
       </c>
       <c r="BO22" s="1">
-        <v>20.895054</v>
+        <v>20.895053999999998</v>
       </c>
       <c r="BP22" s="1">
-        <v>1995.460000</v>
+        <v>1995.46</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1807.350000</v>
+        <v>-1807.35</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>75232.878121</v>
+        <v>75232.878121000002</v>
       </c>
       <c r="BT22" s="1">
-        <v>20.898022</v>
+        <v>20.898022000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>2381.820000</v>
+        <v>2381.8200000000002</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2681.700000</v>
+        <v>-2681.7</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>75244.006364</v>
+        <v>75244.006364000001</v>
       </c>
       <c r="BY22" s="1">
-        <v>20.901113</v>
+        <v>20.901112999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2864.710000</v>
+        <v>2864.71</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3629.710000</v>
+        <v>-3629.71</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>75256.964842</v>
+        <v>75256.964842000001</v>
       </c>
       <c r="CD22" s="1">
         <v>20.904712</v>
       </c>
       <c r="CE22" s="1">
-        <v>4260.970000</v>
+        <v>4260.97</v>
       </c>
       <c r="CF22" s="1">
-        <v>-5918.890000</v>
+        <v>-5918.89</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>75082.705393</v>
+        <v>75082.705392999997</v>
       </c>
       <c r="B23" s="1">
-        <v>20.856307</v>
+        <v>20.856307000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>1247.960000</v>
+        <v>1247.96</v>
       </c>
       <c r="D23" s="1">
-        <v>-302.468000</v>
+        <v>-302.46800000000002</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>75093.160562</v>
+        <v>75093.160562000005</v>
       </c>
       <c r="G23" s="1">
-        <v>20.859211</v>
+        <v>20.859210999999998</v>
       </c>
       <c r="H23" s="1">
-        <v>1272.780000</v>
+        <v>1272.78</v>
       </c>
       <c r="I23" s="1">
-        <v>-263.193000</v>
+        <v>-263.19299999999998</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>75103.695094</v>
+        <v>75103.695093999995</v>
       </c>
       <c r="L23" s="1">
-        <v>20.862138</v>
+        <v>20.862138000000002</v>
       </c>
       <c r="M23" s="1">
-        <v>1309.590000</v>
+        <v>1309.5899999999999</v>
       </c>
       <c r="N23" s="1">
-        <v>-203.238000</v>
+        <v>-203.238</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>75114.587270</v>
+        <v>75114.587270000004</v>
       </c>
       <c r="Q23" s="1">
-        <v>20.865163</v>
+        <v>20.865162999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>1321.890000</v>
+        <v>1321.89</v>
       </c>
       <c r="S23" s="1">
-        <v>-185.773000</v>
+        <v>-185.773</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>75124.757208</v>
+        <v>75124.757207999995</v>
       </c>
       <c r="V23" s="1">
         <v>20.867988</v>
       </c>
       <c r="W23" s="1">
-        <v>1335.830000</v>
+        <v>1335.83</v>
       </c>
       <c r="X23" s="1">
-        <v>-172.420000</v>
+        <v>-172.42</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>75135.413260</v>
+        <v>75135.413260000001</v>
       </c>
       <c r="AA23" s="1">
-        <v>20.870948</v>
+        <v>20.870947999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>1354.190000</v>
+        <v>1354.19</v>
       </c>
       <c r="AC23" s="1">
-        <v>-170.678000</v>
+        <v>-170.678</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>75145.539580</v>
+        <v>75145.539579999997</v>
       </c>
       <c r="AF23" s="1">
-        <v>20.873761</v>
+        <v>20.873760999999998</v>
       </c>
       <c r="AG23" s="1">
-        <v>1367.690000</v>
+        <v>1367.69</v>
       </c>
       <c r="AH23" s="1">
-        <v>-180.390000</v>
+        <v>-180.39</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>75155.789407</v>
+        <v>75155.789407000004</v>
       </c>
       <c r="AK23" s="1">
-        <v>20.876608</v>
+        <v>20.876608000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>1389.160000</v>
+        <v>1389.16</v>
       </c>
       <c r="AM23" s="1">
-        <v>-210.038000</v>
+        <v>-210.03800000000001</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>75165.974754</v>
+        <v>75165.974753999995</v>
       </c>
       <c r="AP23" s="1">
-        <v>20.879437</v>
+        <v>20.879436999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1411.600000</v>
+        <v>1411.6</v>
       </c>
       <c r="AR23" s="1">
-        <v>-253.488000</v>
+        <v>-253.488</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>75177.091587</v>
+        <v>75177.091587000003</v>
       </c>
       <c r="AU23" s="1">
-        <v>20.882525</v>
+        <v>20.882525000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>1436.820000</v>
+        <v>1436.82</v>
       </c>
       <c r="AW23" s="1">
-        <v>-312.847000</v>
+        <v>-312.84699999999998</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>75188.519908</v>
+        <v>75188.519908000002</v>
       </c>
       <c r="AZ23" s="1">
-        <v>20.885700</v>
+        <v>20.8857</v>
       </c>
       <c r="BA23" s="1">
-        <v>1456.570000</v>
+        <v>1456.57</v>
       </c>
       <c r="BB23" s="1">
-        <v>-364.363000</v>
+        <v>-364.363</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>75199.439831</v>
+        <v>75199.439830999996</v>
       </c>
       <c r="BE23" s="1">
-        <v>20.888733</v>
+        <v>20.888732999999998</v>
       </c>
       <c r="BF23" s="1">
-        <v>1543.260000</v>
+        <v>1543.26</v>
       </c>
       <c r="BG23" s="1">
-        <v>-609.773000</v>
+        <v>-609.77300000000002</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>75211.176203</v>
+        <v>75211.176202999995</v>
       </c>
       <c r="BJ23" s="1">
-        <v>20.891993</v>
+        <v>20.891992999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1699.260000</v>
+        <v>1699.26</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1048.970000</v>
+        <v>-1048.97</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>75222.602006</v>
+        <v>75222.602006000001</v>
       </c>
       <c r="BO23" s="1">
-        <v>20.895167</v>
+        <v>20.895167000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1995.320000</v>
+        <v>1995.32</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1807.430000</v>
+        <v>-1807.43</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>75233.309642</v>
+        <v>75233.309641999993</v>
       </c>
       <c r="BT23" s="1">
         <v>20.898142</v>
       </c>
       <c r="BU23" s="1">
-        <v>2381.290000</v>
+        <v>2381.29</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2681.440000</v>
+        <v>-2681.44</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>75244.433914</v>
+        <v>75244.433913999994</v>
       </c>
       <c r="BY23" s="1">
         <v>20.901232</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2864.840000</v>
+        <v>2864.84</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3629.800000</v>
+        <v>-3629.8</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>75257.486633</v>
+        <v>75257.486632999993</v>
       </c>
       <c r="CD23" s="1">
         <v>20.904857</v>
       </c>
       <c r="CE23" s="1">
-        <v>4256.090000</v>
+        <v>4256.09</v>
       </c>
       <c r="CF23" s="1">
-        <v>-5916.700000</v>
+        <v>-5916.7</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>75083.048127</v>
+        <v>75083.048127000002</v>
       </c>
       <c r="B24" s="1">
-        <v>20.856402</v>
+        <v>20.856401999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>1248.050000</v>
+        <v>1248.05</v>
       </c>
       <c r="D24" s="1">
-        <v>-302.277000</v>
+        <v>-302.27699999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>75093.507303</v>
+        <v>75093.507303000006</v>
       </c>
       <c r="G24" s="1">
-        <v>20.859308</v>
+        <v>20.859307999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>1273.280000</v>
+        <v>1273.28</v>
       </c>
       <c r="I24" s="1">
-        <v>-262.472000</v>
+        <v>-262.47199999999998</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>75104.355764</v>
+        <v>75104.355764000007</v>
       </c>
       <c r="L24" s="1">
-        <v>20.862321</v>
+        <v>20.862321000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>1309.570000</v>
+        <v>1309.57</v>
       </c>
       <c r="N24" s="1">
-        <v>-203.228000</v>
+        <v>-203.22800000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>75114.977093</v>
+        <v>75114.977092999994</v>
       </c>
       <c r="Q24" s="1">
         <v>20.865271</v>
       </c>
       <c r="R24" s="1">
-        <v>1321.930000</v>
+        <v>1321.93</v>
       </c>
       <c r="S24" s="1">
-        <v>-185.703000</v>
+        <v>-185.703</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>75125.133176</v>
+        <v>75125.133176000003</v>
       </c>
       <c r="V24" s="1">
-        <v>20.868093</v>
+        <v>20.868092999999998</v>
       </c>
       <c r="W24" s="1">
-        <v>1335.740000</v>
+        <v>1335.74</v>
       </c>
       <c r="X24" s="1">
-        <v>-172.763000</v>
+        <v>-172.76300000000001</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>75135.762938</v>
       </c>
       <c r="AA24" s="1">
-        <v>20.871045</v>
+        <v>20.871044999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>1354.100000</v>
+        <v>1354.1</v>
       </c>
       <c r="AC24" s="1">
-        <v>-170.644000</v>
+        <v>-170.64400000000001</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>75145.884332</v>
+        <v>75145.884332000001</v>
       </c>
       <c r="AF24" s="1">
-        <v>20.873857</v>
+        <v>20.873857000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>1367.680000</v>
+        <v>1367.68</v>
       </c>
       <c r="AH24" s="1">
-        <v>-180.400000</v>
+        <v>-180.4</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>75156.141567</v>
+        <v>75156.141566999999</v>
       </c>
       <c r="AK24" s="1">
-        <v>20.876706</v>
+        <v>20.876705999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>1389.180000</v>
+        <v>1389.18</v>
       </c>
       <c r="AM24" s="1">
-        <v>-210.078000</v>
+        <v>-210.078</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>75166.408292</v>
+        <v>75166.408291999993</v>
       </c>
       <c r="AP24" s="1">
-        <v>20.879558</v>
+        <v>20.879557999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1411.600000</v>
+        <v>1411.6</v>
       </c>
       <c r="AR24" s="1">
-        <v>-253.477000</v>
+        <v>-253.477</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>75177.820738</v>
+        <v>75177.820737999995</v>
       </c>
       <c r="AU24" s="1">
         <v>20.882728</v>
       </c>
       <c r="AV24" s="1">
-        <v>1436.870000</v>
+        <v>1436.87</v>
       </c>
       <c r="AW24" s="1">
-        <v>-312.807000</v>
+        <v>-312.80700000000002</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>75188.790228</v>
+        <v>75188.790227999998</v>
       </c>
       <c r="AZ24" s="1">
-        <v>20.885775</v>
+        <v>20.885774999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1456.590000</v>
+        <v>1456.59</v>
       </c>
       <c r="BB24" s="1">
-        <v>-364.374000</v>
+        <v>-364.37400000000002</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
         <v>75199.800917</v>
       </c>
       <c r="BE24" s="1">
-        <v>20.888834</v>
+        <v>20.888833999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1543.250000</v>
+        <v>1543.25</v>
       </c>
       <c r="BG24" s="1">
-        <v>-609.769000</v>
+        <v>-609.76900000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>75211.552134</v>
+        <v>75211.552133999998</v>
       </c>
       <c r="BJ24" s="1">
-        <v>20.892098</v>
+        <v>20.892098000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1699.270000</v>
+        <v>1699.27</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1048.940000</v>
+        <v>-1048.94</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>75223.001318</v>
+        <v>75223.001317999995</v>
       </c>
       <c r="BO24" s="1">
-        <v>20.895278</v>
+        <v>20.895278000000001</v>
       </c>
       <c r="BP24" s="1">
-        <v>1995.180000</v>
+        <v>1995.18</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1807.270000</v>
+        <v>-1807.27</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>75233.735208</v>
+        <v>75233.735207999998</v>
       </c>
       <c r="BT24" s="1">
-        <v>20.898260</v>
+        <v>20.898260000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>2381.070000</v>
+        <v>2381.0700000000002</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2680.720000</v>
+        <v>-2680.72</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>75244.852041</v>
+        <v>75244.852041000006</v>
       </c>
       <c r="BY24" s="1">
-        <v>20.901348</v>
+        <v>20.901347999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2864.750000</v>
+        <v>2864.75</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3629.090000</v>
+        <v>-3629.09</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>75258.038216</v>
+        <v>75258.038216000001</v>
       </c>
       <c r="CD24" s="1">
-        <v>20.905011</v>
+        <v>20.905010999999998</v>
       </c>
       <c r="CE24" s="1">
-        <v>4255.640000</v>
+        <v>4255.6400000000003</v>
       </c>
       <c r="CF24" s="1">
-        <v>-5901.050000</v>
+        <v>-5901.05</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>75083.702878</v>
+        <v>75083.702877999996</v>
       </c>
       <c r="B25" s="1">
-        <v>20.856584</v>
+        <v>20.856584000000002</v>
       </c>
       <c r="C25" s="1">
-        <v>1247.810000</v>
+        <v>1247.81</v>
       </c>
       <c r="D25" s="1">
-        <v>-302.377000</v>
+        <v>-302.37700000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>75094.209600</v>
+        <v>75094.209600000002</v>
       </c>
       <c r="G25" s="1">
         <v>20.859503</v>
       </c>
       <c r="H25" s="1">
-        <v>1272.370000</v>
+        <v>1272.3699999999999</v>
       </c>
       <c r="I25" s="1">
-        <v>-262.636000</v>
+        <v>-262.63600000000002</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>75104.731267</v>
+        <v>75104.731266999996</v>
       </c>
       <c r="L25" s="1">
-        <v>20.862425</v>
+        <v>20.862425000000002</v>
       </c>
       <c r="M25" s="1">
-        <v>1309.410000</v>
+        <v>1309.4100000000001</v>
       </c>
       <c r="N25" s="1">
-        <v>-203.365000</v>
+        <v>-203.36500000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>75115.321349</v>
+        <v>75115.321349000005</v>
       </c>
       <c r="Q25" s="1">
-        <v>20.865367</v>
+        <v>20.865366999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>1321.920000</v>
+        <v>1321.92</v>
       </c>
       <c r="S25" s="1">
-        <v>-185.597000</v>
+        <v>-185.59700000000001</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
         <v>75125.477432</v>
@@ -6452,73 +6868,73 @@
         <v>20.868188</v>
       </c>
       <c r="W25" s="1">
-        <v>1335.790000</v>
+        <v>1335.79</v>
       </c>
       <c r="X25" s="1">
-        <v>-172.653000</v>
+        <v>-172.65299999999999</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>75136.110137</v>
+        <v>75136.110136999996</v>
       </c>
       <c r="AA25" s="1">
-        <v>20.871142</v>
+        <v>20.871141999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>1354.130000</v>
+        <v>1354.13</v>
       </c>
       <c r="AC25" s="1">
-        <v>-170.565000</v>
+        <v>-170.565</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>75146.312348</v>
+        <v>75146.312348000007</v>
       </c>
       <c r="AF25" s="1">
-        <v>20.873976</v>
+        <v>20.873975999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>1367.710000</v>
+        <v>1367.71</v>
       </c>
       <c r="AH25" s="1">
-        <v>-180.393000</v>
+        <v>-180.393</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>75156.564192</v>
+        <v>75156.564192000005</v>
       </c>
       <c r="AK25" s="1">
-        <v>20.876823</v>
+        <v>20.876823000000002</v>
       </c>
       <c r="AL25" s="1">
-        <v>1389.180000</v>
+        <v>1389.18</v>
       </c>
       <c r="AM25" s="1">
-        <v>-210.118000</v>
+        <v>-210.11799999999999</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>75166.696929</v>
+        <v>75166.696928999998</v>
       </c>
       <c r="AP25" s="1">
         <v>20.879638</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1411.590000</v>
+        <v>1411.59</v>
       </c>
       <c r="AR25" s="1">
-        <v>-253.515000</v>
+        <v>-253.51499999999999</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
         <v>75178.207618</v>
@@ -6527,240 +6943,240 @@
         <v>20.882835</v>
       </c>
       <c r="AV25" s="1">
-        <v>1436.820000</v>
+        <v>1436.82</v>
       </c>
       <c r="AW25" s="1">
-        <v>-312.835000</v>
+        <v>-312.83499999999998</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>75189.148339</v>
+        <v>75189.148339000007</v>
       </c>
       <c r="AZ25" s="1">
-        <v>20.885875</v>
+        <v>20.885874999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1456.580000</v>
+        <v>1456.58</v>
       </c>
       <c r="BB25" s="1">
-        <v>-364.357000</v>
+        <v>-364.35700000000003</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>75200.162163</v>
+        <v>75200.162163000001</v>
       </c>
       <c r="BE25" s="1">
-        <v>20.888934</v>
+        <v>20.888933999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1543.270000</v>
+        <v>1543.27</v>
       </c>
       <c r="BG25" s="1">
-        <v>-609.776000</v>
+        <v>-609.77599999999995</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>75212.329396</v>
+        <v>75212.329396000001</v>
       </c>
       <c r="BJ25" s="1">
-        <v>20.892314</v>
+        <v>20.892313999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1699.260000</v>
+        <v>1699.26</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1048.850000</v>
+        <v>-1048.8499999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>75223.433798</v>
+        <v>75223.433797999998</v>
       </c>
       <c r="BO25" s="1">
         <v>20.895398</v>
       </c>
       <c r="BP25" s="1">
-        <v>1995.240000</v>
+        <v>1995.24</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1807.280000</v>
+        <v>-1807.28</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>75234.147914</v>
+        <v>75234.147914000001</v>
       </c>
       <c r="BT25" s="1">
         <v>20.898374</v>
       </c>
       <c r="BU25" s="1">
-        <v>2380.390000</v>
+        <v>2380.39</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2680.000000</v>
+        <v>-2680</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>75245.279593</v>
+        <v>75245.279592999999</v>
       </c>
       <c r="BY25" s="1">
         <v>20.901467</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2863.720000</v>
+        <v>2863.72</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3629.620000</v>
+        <v>-3629.62</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>75258.564936</v>
+        <v>75258.564935999995</v>
       </c>
       <c r="CD25" s="1">
-        <v>20.905157</v>
+        <v>20.905156999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>4257.310000</v>
+        <v>4257.3100000000004</v>
       </c>
       <c r="CF25" s="1">
-        <v>-5917.370000</v>
+        <v>-5917.37</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>75084.071878</v>
+        <v>75084.071878000002</v>
       </c>
       <c r="B26" s="1">
-        <v>20.856687</v>
+        <v>20.856687000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>1248.080000</v>
+        <v>1248.08</v>
       </c>
       <c r="D26" s="1">
-        <v>-302.652000</v>
+        <v>-302.65199999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>75094.543904</v>
+        <v>75094.543904000006</v>
       </c>
       <c r="G26" s="1">
         <v>20.859596</v>
       </c>
       <c r="H26" s="1">
-        <v>1272.910000</v>
+        <v>1272.9100000000001</v>
       </c>
       <c r="I26" s="1">
-        <v>-262.862000</v>
+        <v>-262.86200000000002</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>75105.079426</v>
+        <v>75105.079425999997</v>
       </c>
       <c r="L26" s="1">
-        <v>20.862522</v>
+        <v>20.862521999999998</v>
       </c>
       <c r="M26" s="1">
-        <v>1309.230000</v>
+        <v>1309.23</v>
       </c>
       <c r="N26" s="1">
-        <v>-203.494000</v>
+        <v>-203.494</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>75115.673476</v>
+        <v>75115.673475999996</v>
       </c>
       <c r="Q26" s="1">
         <v>20.865465</v>
       </c>
       <c r="R26" s="1">
-        <v>1321.960000</v>
+        <v>1321.96</v>
       </c>
       <c r="S26" s="1">
-        <v>-185.744000</v>
+        <v>-185.744</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>75125.820631</v>
+        <v>75125.820630999995</v>
       </c>
       <c r="V26" s="1">
-        <v>20.868284</v>
+        <v>20.868283999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>1335.780000</v>
+        <v>1335.78</v>
       </c>
       <c r="X26" s="1">
-        <v>-172.618000</v>
+        <v>-172.61799999999999</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>75136.534713</v>
+        <v>75136.534713000001</v>
       </c>
       <c r="AA26" s="1">
-        <v>20.871260</v>
+        <v>20.871259999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>1354.160000</v>
+        <v>1354.16</v>
       </c>
       <c r="AC26" s="1">
-        <v>-170.754000</v>
+        <v>-170.75399999999999</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>75146.580716</v>
+        <v>75146.580715999997</v>
       </c>
       <c r="AF26" s="1">
-        <v>20.874050</v>
+        <v>20.87405</v>
       </c>
       <c r="AG26" s="1">
-        <v>1367.650000</v>
+        <v>1367.65</v>
       </c>
       <c r="AH26" s="1">
-        <v>-180.432000</v>
+        <v>-180.43199999999999</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>75156.845391</v>
+        <v>75156.845390999995</v>
       </c>
       <c r="AK26" s="1">
         <v>20.876901</v>
       </c>
       <c r="AL26" s="1">
-        <v>1389.160000</v>
+        <v>1389.16</v>
       </c>
       <c r="AM26" s="1">
-        <v>-210.068000</v>
+        <v>-210.06800000000001</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
         <v>75167.055536</v>
@@ -6769,135 +7185,136 @@
         <v>20.879738</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1411.570000</v>
+        <v>1411.57</v>
       </c>
       <c r="AR26" s="1">
-        <v>-253.482000</v>
+        <v>-253.482</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>75178.574658</v>
+        <v>75178.574657999998</v>
       </c>
       <c r="AU26" s="1">
-        <v>20.882937</v>
+        <v>20.882936999999998</v>
       </c>
       <c r="AV26" s="1">
-        <v>1436.840000</v>
+        <v>1436.84</v>
       </c>
       <c r="AW26" s="1">
-        <v>-312.815000</v>
+        <v>-312.815</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>75189.507940</v>
+        <v>75189.507939999996</v>
       </c>
       <c r="AZ26" s="1">
-        <v>20.885974</v>
+        <v>20.885974000000001</v>
       </c>
       <c r="BA26" s="1">
-        <v>1456.590000</v>
+        <v>1456.59</v>
       </c>
       <c r="BB26" s="1">
-        <v>-364.376000</v>
+        <v>-364.37599999999998</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>75200.882195</v>
+        <v>75200.882194999998</v>
       </c>
       <c r="BE26" s="1">
-        <v>20.889134</v>
+        <v>20.889133999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1543.290000</v>
+        <v>1543.29</v>
       </c>
       <c r="BG26" s="1">
-        <v>-609.766000</v>
+        <v>-609.76599999999996</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>75212.702852</v>
+        <v>75212.702852000002</v>
       </c>
       <c r="BJ26" s="1">
-        <v>20.892417</v>
+        <v>20.892416999999998</v>
       </c>
       <c r="BK26" s="1">
-        <v>1699.250000</v>
+        <v>1699.25</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1048.840000</v>
+        <v>-1048.8399999999999</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>75223.817205</v>
+        <v>75223.817204999999</v>
       </c>
       <c r="BO26" s="1">
         <v>20.895505</v>
       </c>
       <c r="BP26" s="1">
-        <v>1995.420000</v>
+        <v>1995.42</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1807.250000</v>
+        <v>-1807.25</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>75234.580887</v>
+        <v>75234.580887000004</v>
       </c>
       <c r="BT26" s="1">
         <v>20.898495</v>
       </c>
       <c r="BU26" s="1">
-        <v>2380.550000</v>
+        <v>2380.5500000000002</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2679.360000</v>
+        <v>-2679.36</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>75246.011688</v>
+        <v>75246.011687999999</v>
       </c>
       <c r="BY26" s="1">
-        <v>20.901670</v>
+        <v>20.901669999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2864.560000</v>
+        <v>2864.56</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3629.500000</v>
+        <v>-3629.5</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>75259.414582</v>
+        <v>75259.414581999998</v>
       </c>
       <c r="CD26" s="1">
         <v>20.905393</v>
       </c>
       <c r="CE26" s="1">
-        <v>4259.910000</v>
+        <v>4259.91</v>
       </c>
       <c r="CF26" s="1">
-        <v>-5898.540000</v>
+        <v>-5898.54</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>